--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44951</v>
+        <v>44954</v>
       </c>
       <c r="B2">
-        <v>383.0096801894029</v>
+        <v>382.538027482537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44952</v>
+        <v>44955</v>
       </c>
       <c r="B3">
-        <v>382.4242553124532</v>
+        <v>378.6569467493225</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B4">
-        <v>384.0981230394042</v>
+        <v>379.4246499932157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44954</v>
+        <v>44957</v>
       </c>
       <c r="B5">
-        <v>384.2833721645017</v>
+        <v>380.089698689434</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44955</v>
+        <v>44958</v>
       </c>
       <c r="B6">
-        <v>380.1116159257698</v>
+        <v>378.7068744988066</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44956</v>
+        <v>44959</v>
       </c>
       <c r="B7">
-        <v>381.2291550615948</v>
+        <v>380.4475242552085</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44957</v>
+        <v>44960</v>
       </c>
       <c r="B8">
-        <v>381.9956966588089</v>
+        <v>382.5453591422674</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44958</v>
+        <v>44961</v>
       </c>
       <c r="B9">
-        <v>380.2422290181578</v>
+        <v>382.2269841934431</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B10">
-        <v>382.1459411748005</v>
+        <v>380.5569859073366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B11">
-        <v>384.263311748585</v>
+        <v>381.2153442715046</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44961</v>
+        <v>44964</v>
       </c>
       <c r="B12">
-        <v>383.899624873751</v>
+        <v>382.9502225932828</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44962</v>
+        <v>44965</v>
       </c>
       <c r="B13">
-        <v>382.3049978832833</v>
+        <v>381.8097724131298</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B14">
-        <v>382.960046169256</v>
+        <v>382.7294466059858</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B15">
-        <v>384.7298553446913</v>
+        <v>384.8481965498246</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44965</v>
+        <v>44968</v>
       </c>
       <c r="B16">
-        <v>383.4715521256265</v>
+        <v>383.5922601706413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c r="B17">
-        <v>384.3907757893382</v>
+        <v>383.1552327975235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B18">
-        <v>386.5360796234625</v>
+        <v>383.2787771347878</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44968</v>
+        <v>44971</v>
       </c>
       <c r="B19">
-        <v>385.1234753604951</v>
+        <v>383.0806563178856</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="B20">
-        <v>384.7434989245817</v>
+        <v>384.3224213557585</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="B21">
-        <v>384.7617938007184</v>
+        <v>384.5800215260618</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="B22">
-        <v>384.3749049950421</v>
+        <v>384.5507459212382</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44972</v>
+        <v>44975</v>
       </c>
       <c r="B23">
-        <v>385.759519111686</v>
+        <v>383.9134380892371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="B24">
-        <v>386.0006261165969</v>
+        <v>381.8540620159107</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B25">
-        <v>385.8577479586684</v>
+        <v>381.8982013795074</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44975</v>
+        <v>44978</v>
       </c>
       <c r="B26">
-        <v>385.15543347978</v>
+        <v>382.4474027137894</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="B27">
-        <v>382.9532452304862</v>
+        <v>381.648392743399</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="B28">
-        <v>382.9354006282746</v>
+        <v>380.7877997782028</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="B29">
-        <v>383.4403668535828</v>
+        <v>379.8838697190064</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44979</v>
+        <v>44982</v>
       </c>
       <c r="B30">
-        <v>382.698055852595</v>
+        <v>379.6877470401829</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c r="B31">
-        <v>381.8310474637071</v>
+        <v>378.556128179052</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B32">
-        <v>380.7827835869685</v>
+        <v>378.4759682149694</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44982</v>
+        <v>44985</v>
       </c>
       <c r="B33">
-        <v>380.6289636715363</v>
+        <v>382.1338171885902</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44983</v>
+        <v>44986</v>
       </c>
       <c r="B34">
-        <v>379.3520965861069</v>
+        <v>381.819747053878</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B35">
-        <v>379.295882983076</v>
+        <v>377.3365015123886</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B36">
-        <v>383.4790760009682</v>
+        <v>375.9430034963299</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B37">
-        <v>383.0036810119874</v>
+        <v>374.5386932902237</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B38">
-        <v>377.9020767862535</v>
+        <v>372.49966918631</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B39">
-        <v>376.356077064464</v>
+        <v>373.1885306109793</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B40">
-        <v>374.853831224023</v>
+        <v>372.8854153674492</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B41">
-        <v>372.7201356861202</v>
+        <v>371.2582993430964</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B42">
-        <v>373.3560908894508</v>
+        <v>372.3069005582618</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B43">
-        <v>372.8466931622966</v>
+        <v>373.7747418731286</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44993</v>
+        <v>44996</v>
       </c>
       <c r="B44">
-        <v>371.0847755581439</v>
+        <v>372.3760105462203</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B45">
-        <v>372.0727109168978</v>
+        <v>370.6699943678786</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B46">
-        <v>373.4429785631415</v>
+        <v>370.4512581671265</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="B47">
-        <v>371.915722982396</v>
+        <v>370.48813757171</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="B48">
-        <v>370.1110192151034</v>
+        <v>371.7889646191259</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="B49">
-        <v>369.7967683632295</v>
+        <v>373.7774810549705</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="B50">
-        <v>369.6262196161608</v>
+        <v>374.2568118408616</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="B51">
-        <v>370.8165355837921</v>
+        <v>374.7649327869744</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B52">
-        <v>372.7397565128132</v>
+        <v>375.5679196440227</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B53">
-        <v>373.072345993847</v>
+        <v>375.7570854449306</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="B54">
-        <v>373.5175723747737</v>
+        <v>376.5129075076325</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45004</v>
+        <v>45007</v>
       </c>
       <c r="B55">
-        <v>374.1768176841217</v>
+        <v>377.1840652840058</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B56">
-        <v>374.2902102202344</v>
+        <v>377.165222545265</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="B57">
-        <v>375.1072378937585</v>
+        <v>377.5180883556838</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B58">
-        <v>375.5958473359841</v>
+        <v>378.4904554746247</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B59">
-        <v>375.4295415998916</v>
+        <v>379.2931241851705</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B60">
-        <v>375.7297375997032</v>
+        <v>378.7569728638998</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B61">
-        <v>376.5763001459457</v>
+        <v>378.1818753279683</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45011</v>
+        <v>45014</v>
       </c>
       <c r="B62">
-        <v>377.3855377151687</v>
+        <v>378.9798970576671</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="B63">
-        <v>376.743550193356</v>
+        <v>379.8083813105144</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B64">
-        <v>376.0484068267525</v>
+        <v>380.2099495917133</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45014</v>
+        <v>45017</v>
       </c>
       <c r="B65">
-        <v>376.9151024519791</v>
+        <v>379.9658917232229</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45015</v>
+        <v>45018</v>
       </c>
       <c r="B66">
-        <v>377.6897491850034</v>
+        <v>380.3697582902717</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B67">
-        <v>378.0534205478477</v>
+        <v>383.1277959564065</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="B68">
-        <v>377.7465857883729</v>
+        <v>383.5433515780433</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="B69">
-        <v>378.1077523735833</v>
+        <v>379.8817904142227</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B70">
-        <v>381.130683253858</v>
+        <v>377.8680556946993</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="B71">
-        <v>381.4930871311586</v>
+        <v>377.6640057708662</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45021</v>
+        <v>45024</v>
       </c>
       <c r="B72">
-        <v>377.4572675390091</v>
+        <v>377.0799216409667</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45022</v>
+        <v>45025</v>
       </c>
       <c r="B73">
-        <v>375.396301954025</v>
+        <v>377.5237696888356</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B74">
-        <v>375.1840176997584</v>
+        <v>377.126461997567</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="B75">
-        <v>374.4920979049065</v>
+        <v>375.4468941933262</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="B76">
-        <v>374.9157480545308</v>
+        <v>375.8882261562936</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="B77">
-        <v>374.4920335736555</v>
+        <v>376.707503953564</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B78">
-        <v>372.7216985022874</v>
+        <v>376.4723438830835</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="B79">
-        <v>373.0164595727633</v>
+        <v>377.4514239896174</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="B80">
-        <v>373.7749956425118</v>
+        <v>377.3685275619462</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B81">
-        <v>373.5059428949708</v>
+        <v>375.6583804566975</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="B82">
-        <v>374.3960995389285</v>
+        <v>375.5488245809315</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="B83">
-        <v>374.2952428338731</v>
+        <v>376.1376766170267</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="B84">
-        <v>372.4423412858519</v>
+        <v>377.2688676212924</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="B85">
-        <v>372.1180772081726</v>
+        <v>378.7525288306272</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45035</v>
+        <v>45038</v>
       </c>
       <c r="B86">
-        <v>372.6671432268868</v>
+        <v>379.719136117373</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B87">
-        <v>373.7466005329822</v>
+        <v>382.7825412268076</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B88">
-        <v>375.1366453813769</v>
+        <v>384.7662374760432</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="B89">
-        <v>376.01745903465</v>
+        <v>384.521991731925</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45039</v>
+        <v>45042</v>
       </c>
       <c r="B90">
-        <v>378.9797195554862</v>
+        <v>388.619912876486</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="B91">
-        <v>380.9021054413913</v>
+        <v>393.2272629289396</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45041</v>
+        <v>45044</v>
       </c>
       <c r="B92">
-        <v>380.5566519120621</v>
+        <v>393.4215858186608</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,42 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B2">
-        <v>-212751342175305.5</v>
+        <v>382.632155484177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45321</v>
+        <v>44958</v>
       </c>
       <c r="B3">
-        <v>160813056012273.2</v>
+        <v>383.1829876486512</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45686</v>
+        <v>44959</v>
       </c>
       <c r="B4">
-        <v>175320619687162.7</v>
+        <v>382.931165701774</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>46051</v>
+        <v>44960</v>
       </c>
       <c r="B5">
-        <v>189733035389000.9</v>
+        <v>383.2150798254618</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>46416</v>
+        <v>44961</v>
       </c>
       <c r="B6">
-        <v>204040113276967.5</v>
+        <v>384.0943181072164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B7">
+        <v>383.8894072116491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B8">
+        <v>382.2894556682672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B9">
+        <v>381.5251090949255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B10">
+        <v>383.1346623450322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B11">
+        <v>385.5373875339826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B12">
+        <v>386.4121290863507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B13">
+        <v>385.8545753102013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>44969</v>
+      </c>
+      <c r="B14">
+        <v>385.4403661224373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B15">
+        <v>385.5607918150745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B16">
+        <v>385.6097329972292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B17">
+        <v>385.7049182631057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B18">
+        <v>386.1932128961543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B19">
+        <v>386.2350079263657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>44975</v>
+      </c>
+      <c r="B20">
+        <v>384.8911689576175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B21">
+        <v>383.0633183029985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B22">
+        <v>382.4033919923656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B23">
+        <v>382.7149802493551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B24">
+        <v>382.3836742232749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B25">
+        <v>381.0731365474037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B26">
+        <v>379.9630382048919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B27">
+        <v>379.4280696731882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B28">
+        <v>378.5783319899318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B29">
+        <v>377.2746195717305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B30">
+        <v>376.5525225650319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B31">
+        <v>376.5909988664268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B32">
+        <v>376.1304690521029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B33">
+        <v>374.5276724794218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B34">
+        <v>372.7154455625898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B35">
+        <v>371.4844328437594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B36">
+        <v>370.4504619500755</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B37">
+        <v>369.4670350625425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B38">
+        <v>369.401356319783</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B39">
+        <v>370.455740394964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B40">
+        <v>371.1394765109718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B41">
+        <v>370.1658839591754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B42">
+        <v>368.360023749027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B43">
+        <v>367.5270661010413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B44">
+        <v>368.2070100756049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B45">
+        <v>369.5552495378003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B46">
+        <v>370.7484372105951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B47">
+        <v>371.5445706814476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B48">
+        <v>371.9827735012475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B49">
+        <v>372.3391972229285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B50">
+        <v>372.9695756883309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B51">
+        <v>373.6956772434144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B52">
+        <v>373.9340543378269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B53">
+        <v>373.7894619484125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B54">
+        <v>374.1292845196697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B55">
+        <v>375.0864856633306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B56">
+        <v>375.5664638967037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B57">
+        <v>374.9799282702275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B58">
+        <v>374.3610297127834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B59">
+        <v>374.7676414821074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B60">
+        <v>375.5938028965028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B61">
+        <v>375.702713554246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B62">
+        <v>375.3742704820027</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B63">
+        <v>375.659306634011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B64">
+        <v>376.3340016767394</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B65">
+        <v>376.0562317696973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B66">
+        <v>374.4494143214968</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B67">
+        <v>372.6697590347993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B68">
+        <v>371.7690138064149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B69">
+        <v>371.5863983903045</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B70">
+        <v>371.4513805698434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B71">
+        <v>371.0710335624623</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B72">
+        <v>370.5042092541876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B73">
+        <v>369.9788533752361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B74">
+        <v>369.8756218328586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B75">
+        <v>370.2824396720291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B76">
+        <v>370.5652579620852</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B77">
+        <v>370.0386665826395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B78">
+        <v>369.031380562399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B79">
+        <v>368.5789794096175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B80">
+        <v>369.0871581927404</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B81">
+        <v>370.0718209726678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B82">
+        <v>371.2239477609534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B83">
+        <v>372.8253894585334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B84">
+        <v>374.9305263434106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B85">
+        <v>377.0783288230085</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B86">
+        <v>379.1915403088924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B87">
+        <v>381.7850581268299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B88">
+        <v>384.5618658334267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B89">
+        <v>385.6591327696341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B90">
+        <v>383.5190187783131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B91">
+        <v>379.3193352491006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B92">
+        <v>376.3530685189089</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B2">
-        <v>382.632155484177</v>
+        <v>380.83567935334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44958</v>
+        <v>44960</v>
       </c>
       <c r="B3">
-        <v>383.1829876486512</v>
+        <v>381.1886791184091</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B4">
-        <v>382.931165701774</v>
+        <v>382.5500733329263</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44960</v>
+        <v>44962</v>
       </c>
       <c r="B5">
-        <v>383.2150798254618</v>
+        <v>382.4932639396461</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44961</v>
+        <v>44963</v>
       </c>
       <c r="B6">
-        <v>384.0943181072164</v>
+        <v>380.5430653632091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44962</v>
+        <v>44964</v>
       </c>
       <c r="B7">
-        <v>383.8894072116491</v>
+        <v>379.4665932693531</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44963</v>
+        <v>44965</v>
       </c>
       <c r="B8">
-        <v>382.2894556682672</v>
+        <v>381.1459449408237</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="B9">
-        <v>381.5251090949255</v>
+        <v>383.7351933539824</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="B10">
-        <v>383.1346623450322</v>
+        <v>384.607131968068</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44966</v>
+        <v>44968</v>
       </c>
       <c r="B11">
-        <v>385.5373875339826</v>
+        <v>383.9653521353339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44967</v>
+        <v>44969</v>
       </c>
       <c r="B12">
-        <v>386.4121290863507</v>
+        <v>383.587058712186</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44968</v>
+        <v>44970</v>
       </c>
       <c r="B13">
-        <v>385.8545753102013</v>
+        <v>383.7974666789088</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44969</v>
+        <v>44971</v>
       </c>
       <c r="B14">
-        <v>385.4403661224373</v>
+        <v>383.8631590147268</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="B15">
-        <v>385.5607918150745</v>
+        <v>383.9732744693196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B16">
-        <v>385.6097329972292</v>
+        <v>384.564021017612</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="B17">
-        <v>385.7049182631057</v>
+        <v>384.7044893185957</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44973</v>
+        <v>44975</v>
       </c>
       <c r="B18">
-        <v>386.1932128961543</v>
+        <v>383.3724710993423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44974</v>
+        <v>44976</v>
       </c>
       <c r="B19">
-        <v>386.2350079263657</v>
+        <v>381.571039930242</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44975</v>
+        <v>44977</v>
       </c>
       <c r="B20">
-        <v>384.8911689576175</v>
+        <v>381.0380405675065</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44976</v>
+        <v>44978</v>
       </c>
       <c r="B21">
-        <v>383.0633183029985</v>
+        <v>381.4678971232852</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44977</v>
+        <v>44979</v>
       </c>
       <c r="B22">
-        <v>382.4033919923656</v>
+        <v>381.1430363468469</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="B23">
-        <v>382.7149802493551</v>
+        <v>379.8251014114413</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44979</v>
+        <v>44981</v>
       </c>
       <c r="B24">
-        <v>382.3836742232749</v>
+        <v>378.8088210859366</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44980</v>
+        <v>44982</v>
       </c>
       <c r="B25">
-        <v>381.0731365474037</v>
+        <v>378.3994661186146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44981</v>
+        <v>44983</v>
       </c>
       <c r="B26">
-        <v>379.9630382048919</v>
+        <v>377.6160065297584</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44982</v>
+        <v>44984</v>
       </c>
       <c r="B27">
-        <v>379.4280696731882</v>
+        <v>376.396117164945</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44983</v>
+        <v>44985</v>
       </c>
       <c r="B28">
-        <v>378.5783319899318</v>
+        <v>375.8522606341811</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44984</v>
+        <v>44986</v>
       </c>
       <c r="B29">
-        <v>377.2746195717305</v>
+        <v>376.044818018306</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="B30">
-        <v>376.5525225650319</v>
+        <v>375.5850873051425</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44986</v>
+        <v>44988</v>
       </c>
       <c r="B31">
-        <v>376.5909988664268</v>
+        <v>373.9320216767912</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44987</v>
+        <v>44989</v>
       </c>
       <c r="B32">
-        <v>376.1304690521029</v>
+        <v>372.1891858999242</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44988</v>
+        <v>44990</v>
       </c>
       <c r="B33">
-        <v>374.5276724794218</v>
+        <v>371.0987424930701</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44989</v>
+        <v>44991</v>
       </c>
       <c r="B34">
-        <v>372.7154455625898</v>
+        <v>370.1103876948873</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44990</v>
+        <v>44992</v>
       </c>
       <c r="B35">
-        <v>371.4844328437594</v>
+        <v>369.0888717631503</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B36">
-        <v>370.4504619500755</v>
+        <v>369.0499296477983</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B37">
-        <v>369.4670350625425</v>
+        <v>370.2099777383542</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B38">
-        <v>369.401356319783</v>
+        <v>370.9561507598438</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44994</v>
+        <v>44996</v>
       </c>
       <c r="B39">
-        <v>370.455740394964</v>
+        <v>369.9791226294367</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44995</v>
+        <v>44997</v>
       </c>
       <c r="B40">
-        <v>371.1394765109718</v>
+        <v>368.2015988159112</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44996</v>
+        <v>44998</v>
       </c>
       <c r="B41">
-        <v>370.1658839591754</v>
+        <v>367.4436097603444</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44997</v>
+        <v>44999</v>
       </c>
       <c r="B42">
-        <v>368.360023749027</v>
+        <v>368.1533595409351</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>44998</v>
+        <v>45000</v>
       </c>
       <c r="B43">
-        <v>367.5270661010413</v>
+        <v>369.4704103414135</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="B44">
-        <v>368.2070100756049</v>
+        <v>370.6570611382274</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="B45">
-        <v>369.5552495378003</v>
+        <v>371.4919398116495</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45001</v>
+        <v>45003</v>
       </c>
       <c r="B46">
-        <v>370.7484372105951</v>
+        <v>371.9438733317597</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45002</v>
+        <v>45004</v>
       </c>
       <c r="B47">
-        <v>371.5445706814476</v>
+        <v>372.278021790055</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45003</v>
+        <v>45005</v>
       </c>
       <c r="B48">
-        <v>371.9827735012475</v>
+        <v>372.9162090781227</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45004</v>
+        <v>45006</v>
       </c>
       <c r="B49">
-        <v>372.3391972229285</v>
+        <v>373.6805559894985</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B50">
-        <v>372.9695756883309</v>
+        <v>373.9157799095397</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="B51">
-        <v>373.6956772434144</v>
+        <v>373.7302535788137</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45007</v>
+        <v>45009</v>
       </c>
       <c r="B52">
-        <v>373.9340543378269</v>
+        <v>374.0712527766208</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45008</v>
+        <v>45010</v>
       </c>
       <c r="B53">
-        <v>373.7894619484125</v>
+        <v>375.0687236096473</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45009</v>
+        <v>45011</v>
       </c>
       <c r="B54">
-        <v>374.1292845196697</v>
+        <v>375.5403851228732</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45010</v>
+        <v>45012</v>
       </c>
       <c r="B55">
-        <v>375.0864856633306</v>
+        <v>374.9009346076844</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45011</v>
+        <v>45013</v>
       </c>
       <c r="B56">
-        <v>375.5664638967037</v>
+        <v>374.2925191915004</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45012</v>
+        <v>45014</v>
       </c>
       <c r="B57">
-        <v>374.9799282702275</v>
+        <v>374.7878484360147</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45013</v>
+        <v>45015</v>
       </c>
       <c r="B58">
-        <v>374.3610297127834</v>
+        <v>375.6640853095051</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="B59">
-        <v>374.7676414821074</v>
+        <v>375.7484977753265</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45015</v>
+        <v>45017</v>
       </c>
       <c r="B60">
-        <v>375.5938028965028</v>
+        <v>375.4456518807576</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45016</v>
+        <v>45018</v>
       </c>
       <c r="B61">
-        <v>375.702713554246</v>
+        <v>375.8756173888012</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45017</v>
+        <v>45019</v>
       </c>
       <c r="B62">
-        <v>375.3742704820027</v>
+        <v>376.6906194497795</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45018</v>
+        <v>45020</v>
       </c>
       <c r="B63">
-        <v>375.659306634011</v>
+        <v>376.4189782004555</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45019</v>
+        <v>45021</v>
       </c>
       <c r="B64">
-        <v>376.3340016767394</v>
+        <v>374.7435823430666</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="B65">
-        <v>376.0562317696973</v>
+        <v>372.955521796373</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45021</v>
+        <v>45023</v>
       </c>
       <c r="B66">
-        <v>374.4494143214968</v>
+        <v>372.1147032211135</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45022</v>
+        <v>45024</v>
       </c>
       <c r="B67">
-        <v>372.6697590347993</v>
+        <v>371.9804588524603</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45023</v>
+        <v>45025</v>
       </c>
       <c r="B68">
-        <v>371.7690138064149</v>
+        <v>371.8731532738513</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45024</v>
+        <v>45026</v>
       </c>
       <c r="B69">
-        <v>371.5863983903045</v>
+        <v>371.5500911218866</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45025</v>
+        <v>45027</v>
       </c>
       <c r="B70">
-        <v>371.4513805698434</v>
+        <v>371.0608234404156</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="B71">
-        <v>371.0710335624623</v>
+        <v>370.5787247742938</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="B72">
-        <v>370.5042092541876</v>
+        <v>370.4895187331763</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B73">
-        <v>369.9788533752361</v>
+        <v>370.9327339210197</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45029</v>
+        <v>45031</v>
       </c>
       <c r="B74">
-        <v>369.8756218328586</v>
+        <v>371.2730504285929</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45030</v>
+        <v>45032</v>
       </c>
       <c r="B75">
-        <v>370.2824396720291</v>
+        <v>370.7759553999818</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45031</v>
+        <v>45033</v>
       </c>
       <c r="B76">
-        <v>370.5652579620852</v>
+        <v>369.7656521366758</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45032</v>
+        <v>45034</v>
       </c>
       <c r="B77">
-        <v>370.0386665826395</v>
+        <v>369.3228909714297</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45033</v>
+        <v>45035</v>
       </c>
       <c r="B78">
-        <v>369.031380562399</v>
+        <v>369.8657197717641</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B79">
-        <v>368.5789794096175</v>
+        <v>370.8739175867875</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B80">
-        <v>369.0871581927404</v>
+        <v>372.0206321007558</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45036</v>
+        <v>45038</v>
       </c>
       <c r="B81">
-        <v>370.0718209726678</v>
+        <v>373.6093169630763</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45037</v>
+        <v>45039</v>
       </c>
       <c r="B82">
-        <v>371.2239477609534</v>
+        <v>375.7086421659256</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45038</v>
+        <v>45040</v>
       </c>
       <c r="B83">
-        <v>372.8253894585334</v>
+        <v>377.8492753385472</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45039</v>
+        <v>45041</v>
       </c>
       <c r="B84">
-        <v>374.9305263434106</v>
+        <v>379.954084279319</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45040</v>
+        <v>45042</v>
       </c>
       <c r="B85">
-        <v>377.0783288230085</v>
+        <v>382.5445723573704</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="B86">
-        <v>379.1915403088924</v>
+        <v>385.3048335274588</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45042</v>
+        <v>45044</v>
       </c>
       <c r="B87">
-        <v>381.7850581268299</v>
+        <v>386.3442972644876</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45043</v>
+        <v>45045</v>
       </c>
       <c r="B88">
-        <v>384.5618658334267</v>
+        <v>384.1191658854416</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45044</v>
+        <v>45046</v>
       </c>
       <c r="B89">
-        <v>385.6591327696341</v>
+        <v>379.8538961891547</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45045</v>
+        <v>45047</v>
       </c>
       <c r="B90">
-        <v>383.5190187783131</v>
+        <v>376.8564436861491</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45046</v>
+        <v>45048</v>
       </c>
       <c r="B91">
-        <v>379.3193352491006</v>
+        <v>377.0977863315983</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45047</v>
+        <v>45049</v>
       </c>
       <c r="B92">
-        <v>376.3530685189089</v>
+        <v>379.2890521652899</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B2">
-        <v>380.83567935334</v>
+        <v>380.5729250618021</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B3">
-        <v>381.1886791184091</v>
+        <v>379.9841373717437</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44961</v>
+        <v>44964</v>
       </c>
       <c r="B4">
-        <v>382.5500733329263</v>
+        <v>379.4780094337576</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44962</v>
+        <v>44965</v>
       </c>
       <c r="B5">
-        <v>382.4932639396461</v>
+        <v>380.7116129128606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44963</v>
+        <v>44966</v>
       </c>
       <c r="B6">
-        <v>380.5430653632091</v>
+        <v>382.9237688128502</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B7">
-        <v>379.4665932693531</v>
+        <v>384.0396176057386</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44965</v>
+        <v>44968</v>
       </c>
       <c r="B8">
-        <v>381.1459449408237</v>
+        <v>383.6906949871465</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44966</v>
+        <v>44969</v>
       </c>
       <c r="B9">
-        <v>383.7351933539824</v>
+        <v>383.1951585020055</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B10">
-        <v>384.607131968068</v>
+        <v>383.2918715066028</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44968</v>
+        <v>44971</v>
       </c>
       <c r="B11">
-        <v>383.9653521353339</v>
+        <v>383.7214721637729</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44969</v>
+        <v>44972</v>
       </c>
       <c r="B12">
-        <v>383.587058712186</v>
+        <v>384.4109708880256</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="B13">
-        <v>383.7974666789088</v>
+        <v>385.2693760447897</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44971</v>
+        <v>44974</v>
       </c>
       <c r="B14">
-        <v>383.8631590147268</v>
+        <v>385.3410990933374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44972</v>
+        <v>44975</v>
       </c>
       <c r="B15">
-        <v>383.9732744693196</v>
+        <v>383.9521285987747</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44973</v>
+        <v>44976</v>
       </c>
       <c r="B16">
-        <v>384.564021017612</v>
+        <v>382.2617798076998</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B17">
-        <v>384.7044893185957</v>
+        <v>381.9121627984368</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44975</v>
+        <v>44978</v>
       </c>
       <c r="B18">
-        <v>383.3724710993423</v>
+        <v>382.5390076604482</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="B19">
-        <v>381.571039930242</v>
+        <v>382.4358895072633</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44977</v>
+        <v>44980</v>
       </c>
       <c r="B20">
-        <v>381.0380405675065</v>
+        <v>381.3128528081386</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44978</v>
+        <v>44981</v>
       </c>
       <c r="B21">
-        <v>381.4678971232852</v>
+        <v>380.4148214553227</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44979</v>
+        <v>44982</v>
       </c>
       <c r="B22">
-        <v>381.1430363468469</v>
+        <v>380.1117383575479</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44980</v>
+        <v>44983</v>
       </c>
       <c r="B23">
-        <v>379.8251014114413</v>
+        <v>379.4990486573582</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B24">
-        <v>378.8088210859366</v>
+        <v>378.4755406858065</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44982</v>
+        <v>44985</v>
       </c>
       <c r="B25">
-        <v>378.3994661186146</v>
+        <v>378.080426152569</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44983</v>
+        <v>44986</v>
       </c>
       <c r="B26">
-        <v>377.6160065297584</v>
+        <v>378.3760282229741</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B27">
-        <v>376.396117164945</v>
+        <v>377.9992708819759</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B28">
-        <v>375.8522606341811</v>
+        <v>376.4030436009675</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44986</v>
+        <v>44989</v>
       </c>
       <c r="B29">
-        <v>376.044818018306</v>
+        <v>374.7108116376971</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44987</v>
+        <v>44990</v>
       </c>
       <c r="B30">
-        <v>375.5850873051425</v>
+        <v>373.7115329619729</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B31">
-        <v>373.9320216767912</v>
+        <v>372.8267611542705</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44989</v>
+        <v>44992</v>
       </c>
       <c r="B32">
-        <v>372.1891858999242</v>
+        <v>371.8381414975191</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44990</v>
+        <v>44993</v>
       </c>
       <c r="B33">
-        <v>371.0987424930701</v>
+        <v>371.7781749648835</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44991</v>
+        <v>44994</v>
       </c>
       <c r="B34">
-        <v>370.1103876948873</v>
+        <v>372.9752917724639</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44992</v>
+        <v>44995</v>
       </c>
       <c r="B35">
-        <v>369.0888717631503</v>
+        <v>373.8326689887808</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44993</v>
+        <v>44996</v>
       </c>
       <c r="B36">
-        <v>369.0499296477983</v>
+        <v>372.9292796523413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44994</v>
+        <v>44997</v>
       </c>
       <c r="B37">
-        <v>370.2099777383542</v>
+        <v>371.1467722123008</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B38">
-        <v>370.9561507598438</v>
+        <v>370.3997887932526</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44996</v>
+        <v>44999</v>
       </c>
       <c r="B39">
-        <v>369.9791226294367</v>
+        <v>371.1826448579641</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>44997</v>
+        <v>45000</v>
       </c>
       <c r="B40">
-        <v>368.2015988159112</v>
+        <v>372.5529079740288</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>44998</v>
+        <v>45001</v>
       </c>
       <c r="B41">
-        <v>367.4436097603444</v>
+        <v>373.7319342084812</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>44999</v>
+        <v>45002</v>
       </c>
       <c r="B42">
-        <v>368.1533595409351</v>
+        <v>374.5797281079065</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45000</v>
+        <v>45003</v>
       </c>
       <c r="B43">
-        <v>369.4704103414135</v>
+        <v>375.105197953521</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45001</v>
+        <v>45004</v>
       </c>
       <c r="B44">
-        <v>370.6570611382274</v>
+        <v>375.4901433234011</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B45">
-        <v>371.4919398116495</v>
+        <v>376.1152278354028</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45003</v>
+        <v>45006</v>
       </c>
       <c r="B46">
-        <v>371.9438733317597</v>
+        <v>376.8935683374929</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45004</v>
+        <v>45007</v>
       </c>
       <c r="B47">
-        <v>372.278021790055</v>
+        <v>377.2254172559704</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B48">
-        <v>372.9162090781227</v>
+        <v>377.1339771559877</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45006</v>
+        <v>45009</v>
       </c>
       <c r="B49">
-        <v>373.6805559894985</v>
+        <v>377.5020874083976</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B50">
-        <v>373.9157799095397</v>
+        <v>378.5358211832128</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45008</v>
+        <v>45011</v>
       </c>
       <c r="B51">
-        <v>373.7302535788137</v>
+        <v>379.1206087806515</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B52">
-        <v>374.0712527766208</v>
+        <v>378.6006718973142</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B53">
-        <v>375.0687236096473</v>
+        <v>378.0442990241238</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45011</v>
+        <v>45014</v>
       </c>
       <c r="B54">
-        <v>375.5403851228732</v>
+        <v>378.5838995302835</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45012</v>
+        <v>45015</v>
       </c>
       <c r="B55">
-        <v>374.9009346076844</v>
+        <v>379.5709973837274</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45013</v>
+        <v>45016</v>
       </c>
       <c r="B56">
-        <v>374.2925191915004</v>
+        <v>379.7800674779997</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45014</v>
+        <v>45017</v>
       </c>
       <c r="B57">
-        <v>374.7878484360147</v>
+        <v>379.5358693912253</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45015</v>
+        <v>45018</v>
       </c>
       <c r="B58">
-        <v>375.6640853095051</v>
+        <v>379.99579930239</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B59">
-        <v>375.7484977753265</v>
+        <v>380.8929127582736</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="B60">
-        <v>375.4456518807576</v>
+        <v>380.7461968597096</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45018</v>
+        <v>45021</v>
       </c>
       <c r="B61">
-        <v>375.8756173888012</v>
+        <v>379.1845779863073</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B62">
-        <v>376.6906194497795</v>
+        <v>377.5021327728604</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45020</v>
+        <v>45023</v>
       </c>
       <c r="B63">
-        <v>376.4189782004555</v>
+        <v>376.7820291032016</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45021</v>
+        <v>45024</v>
       </c>
       <c r="B64">
-        <v>374.7435823430666</v>
+        <v>376.7634903552301</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45022</v>
+        <v>45025</v>
       </c>
       <c r="B65">
-        <v>372.955521796373</v>
+        <v>376.7517360038087</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B66">
-        <v>372.1147032211135</v>
+        <v>376.5255030190214</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="B67">
-        <v>371.9804588524603</v>
+        <v>376.1214755731264</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="B68">
-        <v>371.8731532738513</v>
+        <v>375.6696323254041</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="B69">
-        <v>371.5500911218866</v>
+        <v>375.6050835385505</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="B70">
-        <v>371.0608234404156</v>
+        <v>376.1869952143284</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="B71">
-        <v>370.5787247742938</v>
+        <v>376.7538991722079</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="B72">
-        <v>370.4895187331763</v>
+        <v>376.3690323010895</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B73">
-        <v>370.9327339210197</v>
+        <v>375.2665825161369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45031</v>
+        <v>45034</v>
       </c>
       <c r="B74">
-        <v>371.2730504285929</v>
+        <v>374.7033255741316</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45032</v>
+        <v>45035</v>
       </c>
       <c r="B75">
-        <v>370.7759553999818</v>
+        <v>375.2772086212411</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45033</v>
+        <v>45036</v>
       </c>
       <c r="B76">
-        <v>369.7656521366758</v>
+        <v>376.3998027271295</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45034</v>
+        <v>45037</v>
       </c>
       <c r="B77">
-        <v>369.3228909714297</v>
+        <v>377.5921091722922</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45035</v>
+        <v>45038</v>
       </c>
       <c r="B78">
-        <v>369.8657197717641</v>
+        <v>379.1784823790451</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="B79">
-        <v>370.8739175867875</v>
+        <v>381.3262025840307</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B80">
-        <v>372.0206321007558</v>
+        <v>383.5235747804287</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45038</v>
+        <v>45041</v>
       </c>
       <c r="B81">
-        <v>373.6093169630763</v>
+        <v>385.5957179546728</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45039</v>
+        <v>45042</v>
       </c>
       <c r="B82">
-        <v>375.7086421659256</v>
+        <v>388.1170451197717</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="B83">
-        <v>377.8492753385472</v>
+        <v>390.8889170567001</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45041</v>
+        <v>45044</v>
       </c>
       <c r="B84">
-        <v>379.954084279319</v>
+        <v>391.9853087183492</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45042</v>
+        <v>45045</v>
       </c>
       <c r="B85">
-        <v>382.5445723573704</v>
+        <v>389.7417355854507</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45043</v>
+        <v>45046</v>
       </c>
       <c r="B86">
-        <v>385.3048335274588</v>
+        <v>385.3965398163974</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B87">
-        <v>386.3442972644876</v>
+        <v>382.363693805631</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45045</v>
+        <v>45048</v>
       </c>
       <c r="B88">
-        <v>384.1191658854416</v>
+        <v>382.6064208177548</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45046</v>
+        <v>45049</v>
       </c>
       <c r="B89">
-        <v>379.8538961891547</v>
+        <v>384.7439209616163</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45047</v>
+        <v>45050</v>
       </c>
       <c r="B90">
-        <v>376.8564436861491</v>
+        <v>386.1451387323438</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45048</v>
+        <v>45051</v>
       </c>
       <c r="B91">
-        <v>377.0977863315983</v>
+        <v>385.9334860627122</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45049</v>
+        <v>45052</v>
       </c>
       <c r="B92">
-        <v>379.2890521652899</v>
+        <v>385.1719686820674</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44962</v>
       </c>
       <c r="B2">
-        <v>380.5729250618021</v>
+        <v>379.3513561123974</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44963</v>
       </c>
       <c r="B3">
-        <v>379.9841373717437</v>
+        <v>378.8249455561253</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44964</v>
       </c>
       <c r="B4">
-        <v>379.4780094337576</v>
+        <v>378.9891100994913</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>380.7116129128606</v>
+        <v>380.6887720408777</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44966</v>
       </c>
       <c r="B6">
-        <v>382.9237688128502</v>
+        <v>382.8714445109139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>384.0396176057386</v>
+        <v>383.9388614879807</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44968</v>
       </c>
       <c r="B8">
-        <v>383.6906949871465</v>
+        <v>383.8081643940565</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44969</v>
       </c>
       <c r="B9">
-        <v>383.1951585020055</v>
+        <v>383.4701933004755</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44970</v>
       </c>
       <c r="B10">
-        <v>383.2918715066028</v>
+        <v>383.467179532973</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44971</v>
       </c>
       <c r="B11">
-        <v>383.7214721637729</v>
+        <v>383.9189883855441</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44972</v>
       </c>
       <c r="B12">
-        <v>384.4109708880256</v>
+        <v>385.0318464494183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44973</v>
       </c>
       <c r="B13">
-        <v>385.2693760447897</v>
+        <v>386.3474268806121</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44974</v>
       </c>
       <c r="B14">
-        <v>385.3410990933374</v>
+        <v>386.4722417068762</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44975</v>
       </c>
       <c r="B15">
-        <v>383.9521285987747</v>
+        <v>384.9048900443732</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44976</v>
       </c>
       <c r="B16">
-        <v>382.2617798076998</v>
+        <v>383.2394206454478</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44977</v>
       </c>
       <c r="B17">
-        <v>381.9121627984368</v>
+        <v>383.1418042419062</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44978</v>
       </c>
       <c r="B18">
-        <v>382.5390076604482</v>
+        <v>383.9920877224824</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44979</v>
       </c>
       <c r="B19">
-        <v>382.4358895072633</v>
+        <v>384.0608078498487</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44980</v>
       </c>
       <c r="B20">
-        <v>381.3128528081386</v>
+        <v>383.1841067932448</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44981</v>
       </c>
       <c r="B21">
-        <v>380.4148214553227</v>
+        <v>382.51036043585</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44982</v>
       </c>
       <c r="B22">
-        <v>380.1117383575479</v>
+        <v>382.2589633375622</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44983</v>
       </c>
       <c r="B23">
-        <v>379.4990486573582</v>
+        <v>381.692395925098</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="B24">
-        <v>378.4755406858065</v>
+        <v>380.9529676096136</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44985</v>
       </c>
       <c r="B25">
-        <v>378.080426152569</v>
+        <v>380.9165803709967</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44986</v>
       </c>
       <c r="B26">
-        <v>378.3760282229741</v>
+        <v>381.2752827175891</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44987</v>
       </c>
       <c r="B27">
-        <v>377.9992708819759</v>
+        <v>380.6876023024747</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44988</v>
       </c>
       <c r="B28">
-        <v>376.4030436009675</v>
+        <v>378.98282081295</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44989</v>
       </c>
       <c r="B29">
-        <v>374.7108116376971</v>
+        <v>377.419530455014</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44990</v>
       </c>
       <c r="B30">
-        <v>373.7115329619729</v>
+        <v>376.5505080754522</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44991</v>
       </c>
       <c r="B31">
-        <v>372.8267611542705</v>
+        <v>375.6652101795021</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44992</v>
       </c>
       <c r="B32">
-        <v>371.8381414975191</v>
+        <v>374.7066506714451</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44993</v>
       </c>
       <c r="B33">
-        <v>371.7781749648835</v>
+        <v>374.8050529893962</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44994</v>
       </c>
       <c r="B34">
-        <v>372.9752917724639</v>
+        <v>376.1469573746872</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44995</v>
       </c>
       <c r="B35">
-        <v>373.8326689887808</v>
+        <v>377.0452603906587</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44996</v>
       </c>
       <c r="B36">
-        <v>372.9292796523413</v>
+        <v>376.1964386079799</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B37">
-        <v>371.1467722123008</v>
+        <v>374.5591482238065</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44998</v>
       </c>
       <c r="B38">
-        <v>370.3997887932526</v>
+        <v>373.9505328849282</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44999</v>
       </c>
       <c r="B39">
-        <v>371.1826448579641</v>
+        <v>374.8126912600275</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45000</v>
       </c>
       <c r="B40">
-        <v>372.5529079740288</v>
+        <v>376.3026700374944</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45001</v>
       </c>
       <c r="B41">
-        <v>373.7319342084812</v>
+        <v>377.6796084174275</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45002</v>
       </c>
       <c r="B42">
-        <v>374.5797281079065</v>
+        <v>378.6919001363207</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45003</v>
       </c>
       <c r="B43">
-        <v>375.105197953521</v>
+        <v>379.3096151345728</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45004</v>
       </c>
       <c r="B44">
-        <v>375.4901433234011</v>
+        <v>379.8360266240564</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>376.1152278354028</v>
+        <v>380.7026503011422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45006</v>
       </c>
       <c r="B46">
-        <v>376.8935683374929</v>
+        <v>381.6992354031302</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45007</v>
       </c>
       <c r="B47">
-        <v>377.2254172559704</v>
+        <v>382.1550670170342</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45008</v>
       </c>
       <c r="B48">
-        <v>377.1339771559877</v>
+        <v>382.197995076389</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45009</v>
       </c>
       <c r="B49">
-        <v>377.5020874083976</v>
+        <v>382.7843662901119</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45010</v>
       </c>
       <c r="B50">
-        <v>378.5358211832128</v>
+        <v>384.0307031809682</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45011</v>
       </c>
       <c r="B51">
-        <v>379.1206087806515</v>
+        <v>384.7516390736236</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45012</v>
       </c>
       <c r="B52">
-        <v>378.6006718973142</v>
+        <v>384.3658327427818</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45013</v>
       </c>
       <c r="B53">
-        <v>378.0442990241238</v>
+        <v>383.9995509255073</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45014</v>
       </c>
       <c r="B54">
-        <v>378.5838995302835</v>
+        <v>384.7168273332933</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45015</v>
       </c>
       <c r="B55">
-        <v>379.5709973837274</v>
+        <v>385.8267158784402</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45016</v>
       </c>
       <c r="B56">
-        <v>379.7800674779997</v>
+        <v>386.1714463965911</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45017</v>
       </c>
       <c r="B57">
-        <v>379.5358693912253</v>
+        <v>386.0897134586696</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45018</v>
       </c>
       <c r="B58">
-        <v>379.99579930239</v>
+        <v>386.6372951303341</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45019</v>
       </c>
       <c r="B59">
-        <v>380.8929127582736</v>
+        <v>387.5356109455378</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45020</v>
       </c>
       <c r="B60">
-        <v>380.7461968597096</v>
+        <v>387.456685797738</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45021</v>
       </c>
       <c r="B61">
-        <v>379.1845779863073</v>
+        <v>386.0993801355262</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45022</v>
       </c>
       <c r="B62">
-        <v>377.5021327728604</v>
+        <v>384.6122670848459</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45023</v>
       </c>
       <c r="B63">
-        <v>376.7820291032016</v>
+        <v>383.9588029082338</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45024</v>
       </c>
       <c r="B64">
-        <v>376.7634903552301</v>
+        <v>383.9683069234214</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45025</v>
       </c>
       <c r="B65">
-        <v>376.7517360038087</v>
+        <v>384.0545237083513</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45026</v>
       </c>
       <c r="B66">
-        <v>376.5255030190214</v>
+        <v>383.940550013305</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45027</v>
       </c>
       <c r="B67">
-        <v>376.1214755731264</v>
+        <v>383.5994619705237</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45028</v>
       </c>
       <c r="B68">
-        <v>375.6696323254041</v>
+        <v>383.2330101688191</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45029</v>
       </c>
       <c r="B69">
-        <v>375.6050835385505</v>
+        <v>383.3071690616745</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45030</v>
       </c>
       <c r="B70">
-        <v>376.1869952143284</v>
+        <v>383.9519375484443</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45031</v>
       </c>
       <c r="B71">
-        <v>376.7538991722079</v>
+        <v>384.4635939977243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45032</v>
       </c>
       <c r="B72">
-        <v>376.3690323010895</v>
+        <v>384.1172202437016</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45033</v>
       </c>
       <c r="B73">
-        <v>375.2665825161369</v>
+        <v>383.308741170099</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45034</v>
       </c>
       <c r="B74">
-        <v>374.7033255741316</v>
+        <v>383.1155732404498</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45035</v>
       </c>
       <c r="B75">
-        <v>375.2772086212411</v>
+        <v>383.8784887619971</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45036</v>
       </c>
       <c r="B76">
-        <v>376.3998027271295</v>
+        <v>385.0681860088661</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45037</v>
       </c>
       <c r="B77">
-        <v>377.5921091722922</v>
+        <v>386.4373724310865</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45038</v>
       </c>
       <c r="B78">
-        <v>379.1784823790451</v>
+        <v>388.3140474304663</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45039</v>
       </c>
       <c r="B79">
-        <v>381.3262025840307</v>
+        <v>390.6892814745664</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45040</v>
       </c>
       <c r="B80">
-        <v>383.5235747804287</v>
+        <v>393.050205752838</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45041</v>
       </c>
       <c r="B81">
-        <v>385.5957179546728</v>
+        <v>395.3840125857121</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45042</v>
       </c>
       <c r="B82">
-        <v>388.1170451197717</v>
+        <v>398.2691211513909</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45043</v>
       </c>
       <c r="B83">
-        <v>390.8889170567001</v>
+        <v>401.3527821384918</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45044</v>
       </c>
       <c r="B84">
-        <v>391.9853087183492</v>
+        <v>402.7046906489483</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45045</v>
       </c>
       <c r="B85">
-        <v>389.7417355854507</v>
+        <v>400.8129679610003</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45046</v>
       </c>
       <c r="B86">
-        <v>385.3965398163974</v>
+        <v>396.9118726583301</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45047</v>
       </c>
       <c r="B87">
-        <v>382.363693805631</v>
+        <v>394.2294232728442</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45048</v>
       </c>
       <c r="B88">
-        <v>382.6064208177548</v>
+        <v>394.6904688703052</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45049</v>
       </c>
       <c r="B89">
-        <v>384.7439209616163</v>
+        <v>397.0935839978701</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45050</v>
       </c>
       <c r="B90">
-        <v>386.1451387323438</v>
+        <v>398.881296424444</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45051</v>
       </c>
       <c r="B91">
-        <v>385.9334860627122</v>
+        <v>399.0254007700317</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45052</v>
       </c>
       <c r="B92">
-        <v>385.1719686820674</v>
+        <v>398.5015373557461</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44962</v>
       </c>
       <c r="B2">
-        <v>379.3513561123974</v>
+        <v>379.1575748152796</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44963</v>
       </c>
       <c r="B3">
-        <v>378.8249455561253</v>
+        <v>378.5678053006653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44964</v>
       </c>
       <c r="B4">
-        <v>378.9891100994913</v>
+        <v>378.7338678710456</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>380.6887720408777</v>
+        <v>380.4865320945044</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44966</v>
       </c>
       <c r="B6">
-        <v>382.8714445109139</v>
+        <v>382.68572273834</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>383.9388614879807</v>
+        <v>383.702572856298</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44968</v>
       </c>
       <c r="B8">
-        <v>383.8081643940565</v>
+        <v>383.5250325584007</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44969</v>
       </c>
       <c r="B9">
-        <v>383.4701933004755</v>
+        <v>383.1881273837481</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44970</v>
       </c>
       <c r="B10">
-        <v>383.467179532973</v>
+        <v>383.1699613499247</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44971</v>
       </c>
       <c r="B11">
-        <v>383.9189883855441</v>
+        <v>383.537716140104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44972</v>
       </c>
       <c r="B12">
-        <v>385.0318464494183</v>
+        <v>384.5656906861411</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44973</v>
       </c>
       <c r="B13">
-        <v>386.3474268806121</v>
+        <v>385.8633178871651</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44974</v>
       </c>
       <c r="B14">
-        <v>386.4722417068762</v>
+        <v>385.9550194953213</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44975</v>
       </c>
       <c r="B15">
-        <v>384.9048900443732</v>
+        <v>384.227768503264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44976</v>
       </c>
       <c r="B16">
-        <v>383.2394206454478</v>
+        <v>382.3493567279112</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44977</v>
       </c>
       <c r="B17">
-        <v>383.1418042419062</v>
+        <v>382.158585751084</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44978</v>
       </c>
       <c r="B18">
-        <v>383.9920877224824</v>
+        <v>383.0238971713442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44979</v>
       </c>
       <c r="B19">
-        <v>384.0608078498487</v>
+        <v>383.0258473439147</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44980</v>
       </c>
       <c r="B20">
-        <v>383.1841067932448</v>
+        <v>381.9479257670956</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44981</v>
       </c>
       <c r="B21">
-        <v>382.51036043585</v>
+        <v>381.1132172882153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44982</v>
       </c>
       <c r="B22">
-        <v>382.2589633375622</v>
+        <v>380.8339849257747</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44983</v>
       </c>
       <c r="B23">
-        <v>381.692395925098</v>
+        <v>380.2031396267251</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="B24">
-        <v>380.9529676096136</v>
+        <v>379.2118920559151</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44985</v>
       </c>
       <c r="B25">
-        <v>380.9165803709967</v>
+        <v>378.8828162551683</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44986</v>
       </c>
       <c r="B26">
-        <v>381.2752827175891</v>
+        <v>379.1466471340436</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44987</v>
       </c>
       <c r="B27">
-        <v>380.6876023024747</v>
+        <v>378.6298141661874</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44988</v>
       </c>
       <c r="B28">
-        <v>378.98282081295</v>
+        <v>376.9236927104516</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44989</v>
       </c>
       <c r="B29">
-        <v>377.419530455014</v>
+        <v>375.2019210214621</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44990</v>
       </c>
       <c r="B30">
-        <v>376.5505080754522</v>
+        <v>374.1539801155729</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44991</v>
       </c>
       <c r="B31">
-        <v>375.6652101795021</v>
+        <v>373.1583680916909</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44992</v>
       </c>
       <c r="B32">
-        <v>374.7066506714451</v>
+        <v>372.0806843819745</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44993</v>
       </c>
       <c r="B33">
-        <v>374.8050529893962</v>
+        <v>371.98882118133</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44994</v>
       </c>
       <c r="B34">
-        <v>376.1469573746872</v>
+        <v>373.1336970109775</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44995</v>
       </c>
       <c r="B35">
-        <v>377.0452603906587</v>
+        <v>373.8852210526866</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44996</v>
       </c>
       <c r="B36">
-        <v>376.1964386079799</v>
+        <v>372.8908260368685</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B37">
-        <v>374.5591482238065</v>
+        <v>371.0605006067769</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44998</v>
       </c>
       <c r="B38">
-        <v>373.9505328849282</v>
+        <v>370.252132997636</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44999</v>
       </c>
       <c r="B39">
-        <v>374.8126912600275</v>
+        <v>370.9520982580737</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45000</v>
       </c>
       <c r="B40">
-        <v>376.3026700374944</v>
+        <v>372.284698656093</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45001</v>
       </c>
       <c r="B41">
-        <v>377.6796084174275</v>
+        <v>373.4679948983897</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45002</v>
       </c>
       <c r="B42">
-        <v>378.6919001363207</v>
+        <v>374.2729725803138</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45003</v>
       </c>
       <c r="B43">
-        <v>379.3096151345728</v>
+        <v>374.7037347960926</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45004</v>
       </c>
       <c r="B44">
-        <v>379.8360266240564</v>
+        <v>375.0491977779505</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>380.7026503011422</v>
+        <v>375.7168679510133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45006</v>
       </c>
       <c r="B46">
-        <v>381.6992354031302</v>
+        <v>376.5071367902568</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45007</v>
       </c>
       <c r="B47">
-        <v>382.1550670170342</v>
+        <v>376.7653755399052</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45008</v>
       </c>
       <c r="B48">
-        <v>382.197995076389</v>
+        <v>376.6145823705086</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45009</v>
       </c>
       <c r="B49">
-        <v>382.7843662901119</v>
+        <v>377.0079809157631</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45010</v>
       </c>
       <c r="B50">
-        <v>384.0307031809682</v>
+        <v>378.0645055025912</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45011</v>
       </c>
       <c r="B51">
-        <v>384.7516390736236</v>
+        <v>378.5852708106553</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45012</v>
       </c>
       <c r="B52">
-        <v>384.3658327427818</v>
+        <v>377.9847265523474</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45013</v>
       </c>
       <c r="B53">
-        <v>383.9995509255073</v>
+        <v>377.4264638246822</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45014</v>
       </c>
       <c r="B54">
-        <v>384.7168273332933</v>
+        <v>377.9969477773967</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45015</v>
       </c>
       <c r="B55">
-        <v>385.8267158784402</v>
+        <v>378.9536845707121</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45016</v>
       </c>
       <c r="B56">
-        <v>386.1714463965911</v>
+        <v>379.0961368586238</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45017</v>
       </c>
       <c r="B57">
-        <v>386.0897134586696</v>
+        <v>378.8322448624291</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45018</v>
       </c>
       <c r="B58">
-        <v>386.6372951303341</v>
+        <v>379.3017278435063</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45019</v>
       </c>
       <c r="B59">
-        <v>387.5356109455378</v>
+        <v>380.1549095654515</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45020</v>
       </c>
       <c r="B60">
-        <v>387.456685797738</v>
+        <v>379.9129722989499</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45021</v>
       </c>
       <c r="B61">
-        <v>386.0993801355262</v>
+        <v>378.2805016493396</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45022</v>
       </c>
       <c r="B62">
-        <v>384.6122670848459</v>
+        <v>376.5650734631904</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45023</v>
       </c>
       <c r="B63">
-        <v>383.9588029082338</v>
+        <v>375.7909810599498</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45024</v>
       </c>
       <c r="B64">
-        <v>383.9683069234214</v>
+        <v>375.6813613227856</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45025</v>
       </c>
       <c r="B65">
-        <v>384.0545237083513</v>
+        <v>375.5951284625256</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45026</v>
       </c>
       <c r="B66">
-        <v>383.940550013305</v>
+        <v>375.3452607932539</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45027</v>
       </c>
       <c r="B67">
-        <v>383.5994619705237</v>
+        <v>374.9428119588236</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45028</v>
       </c>
       <c r="B68">
-        <v>383.2330101688191</v>
+        <v>374.4784847208746</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45029</v>
       </c>
       <c r="B69">
-        <v>383.3071690616745</v>
+        <v>374.3620726613742</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45030</v>
       </c>
       <c r="B70">
-        <v>383.9519375484443</v>
+        <v>374.8412415381054</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45031</v>
       </c>
       <c r="B71">
-        <v>384.4635939977243</v>
+        <v>375.2899773278947</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45032</v>
       </c>
       <c r="B72">
-        <v>384.1172202437016</v>
+        <v>374.8599583997401</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45033</v>
       </c>
       <c r="B73">
-        <v>383.308741170099</v>
+        <v>373.8294403125939</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45034</v>
       </c>
       <c r="B74">
-        <v>383.1155732404498</v>
+        <v>373.3771592089664</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45035</v>
       </c>
       <c r="B75">
-        <v>383.8784887619971</v>
+        <v>373.995711023971</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45036</v>
       </c>
       <c r="B76">
-        <v>385.0681860088661</v>
+        <v>375.1095635888535</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45037</v>
       </c>
       <c r="B77">
-        <v>386.4373724310865</v>
+        <v>376.3338900123184</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45038</v>
       </c>
       <c r="B78">
-        <v>388.3140474304663</v>
+        <v>378.0076458392889</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45039</v>
       </c>
       <c r="B79">
-        <v>390.6892814745664</v>
+        <v>380.2163557760013</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45040</v>
       </c>
       <c r="B80">
-        <v>393.050205752838</v>
+        <v>382.417611513733</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45041</v>
       </c>
       <c r="B81">
-        <v>395.3840125857121</v>
+        <v>384.5100354464921</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45042</v>
       </c>
       <c r="B82">
-        <v>398.2691211513909</v>
+        <v>387.1202595433889</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45043</v>
       </c>
       <c r="B83">
-        <v>401.3527821384918</v>
+        <v>390.0023817228456</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45044</v>
       </c>
       <c r="B84">
-        <v>402.7046906489483</v>
+        <v>391.1813609576556</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45045</v>
       </c>
       <c r="B85">
-        <v>400.8129679610003</v>
+        <v>389.0290380633341</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45046</v>
       </c>
       <c r="B86">
-        <v>396.9118726583301</v>
+        <v>384.8253874067349</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45047</v>
       </c>
       <c r="B87">
-        <v>394.2294232728442</v>
+        <v>381.9350689769802</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45048</v>
       </c>
       <c r="B88">
-        <v>394.6904688703052</v>
+        <v>382.2496163294043</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45049</v>
       </c>
       <c r="B89">
-        <v>397.0935839978701</v>
+        <v>384.4129611518343</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45050</v>
       </c>
       <c r="B90">
-        <v>398.881296424444</v>
+        <v>385.8747249551079</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45051</v>
       </c>
       <c r="B91">
-        <v>399.0254007700317</v>
+        <v>385.7568567623291</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45052</v>
       </c>
       <c r="B92">
-        <v>398.5015373557461</v>
+        <v>385.0309632892171</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44962</v>
       </c>
       <c r="B2">
-        <v>379.1575748152796</v>
+        <v>379.1984170596295</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44963</v>
       </c>
       <c r="B3">
-        <v>378.5678053006653</v>
+        <v>378.7675735902959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44964</v>
       </c>
       <c r="B4">
-        <v>378.7338678710456</v>
+        <v>379.2241471620136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>380.4865320945044</v>
+        <v>381.1110516029102</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44966</v>
       </c>
       <c r="B6">
-        <v>382.68572273834</v>
+        <v>383.2550708977819</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>383.702572856298</v>
+        <v>384.2413218602394</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44968</v>
       </c>
       <c r="B8">
-        <v>383.5250325584007</v>
+        <v>384.1460608846015</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44969</v>
       </c>
       <c r="B9">
-        <v>383.1881273837481</v>
+        <v>383.8648017205675</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44970</v>
       </c>
       <c r="B10">
-        <v>383.1699613499247</v>
+        <v>383.8014294531483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44971</v>
       </c>
       <c r="B11">
-        <v>383.537716140104</v>
+        <v>384.1530985476455</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44972</v>
       </c>
       <c r="B12">
-        <v>384.5656906861411</v>
+        <v>385.2867866888971</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44973</v>
       </c>
       <c r="B13">
-        <v>385.8633178871651</v>
+        <v>386.7067852880015</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44974</v>
       </c>
       <c r="B14">
-        <v>385.9550194953213</v>
+        <v>386.8373060876347</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44975</v>
       </c>
       <c r="B15">
-        <v>384.227768503264</v>
+        <v>385.1469924515951</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44976</v>
       </c>
       <c r="B16">
-        <v>382.3493567279112</v>
+        <v>383.3982673012978</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44977</v>
       </c>
       <c r="B17">
-        <v>382.158585751084</v>
+        <v>383.3505845715166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44978</v>
       </c>
       <c r="B18">
-        <v>383.0238971713442</v>
+        <v>384.263456559516</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44979</v>
       </c>
       <c r="B19">
-        <v>383.0258473439147</v>
+        <v>384.2809823742933</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44980</v>
       </c>
       <c r="B20">
-        <v>381.9479257670956</v>
+        <v>383.3060154342916</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44981</v>
       </c>
       <c r="B21">
-        <v>381.1132172882153</v>
+        <v>382.6220154470092</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44982</v>
       </c>
       <c r="B22">
-        <v>380.8339849257747</v>
+        <v>382.430999701532</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44983</v>
       </c>
       <c r="B23">
-        <v>380.2031396267251</v>
+        <v>381.8696951237229</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="B24">
-        <v>379.2118920559151</v>
+        <v>381.0599425136407</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44985</v>
       </c>
       <c r="B25">
-        <v>378.8828162551683</v>
+        <v>380.9888073906832</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44986</v>
       </c>
       <c r="B26">
-        <v>379.1466471340436</v>
+        <v>381.4079668965223</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44987</v>
       </c>
       <c r="B27">
-        <v>378.6298141661874</v>
+        <v>380.9025341842203</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44988</v>
       </c>
       <c r="B28">
-        <v>376.9236927104516</v>
+        <v>379.2237671237407</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44989</v>
       </c>
       <c r="B29">
-        <v>375.2019210214621</v>
+        <v>377.6474337233046</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44990</v>
       </c>
       <c r="B30">
-        <v>374.1539801155729</v>
+        <v>376.7622946949889</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44991</v>
       </c>
       <c r="B31">
-        <v>373.1583680916909</v>
+        <v>375.8312519689994</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44992</v>
       </c>
       <c r="B32">
-        <v>372.0806843819745</v>
+        <v>374.7727777327443</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44993</v>
       </c>
       <c r="B33">
-        <v>371.98882118133</v>
+        <v>374.770755901454</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44994</v>
       </c>
       <c r="B34">
-        <v>373.1336970109775</v>
+        <v>376.0765165187738</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44995</v>
       </c>
       <c r="B35">
-        <v>373.8852210526866</v>
+        <v>376.9791414040904</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44996</v>
       </c>
       <c r="B36">
-        <v>372.8908260368685</v>
+        <v>376.1013613983126</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B37">
-        <v>371.0605006067769</v>
+        <v>374.3821805224508</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44998</v>
       </c>
       <c r="B38">
-        <v>370.252132997636</v>
+        <v>373.6699879391976</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44999</v>
       </c>
       <c r="B39">
-        <v>370.9520982580737</v>
+        <v>374.4140754380707</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45000</v>
       </c>
       <c r="B40">
-        <v>372.284698656093</v>
+        <v>375.7597733720798</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45001</v>
       </c>
       <c r="B41">
-        <v>373.4679948983897</v>
+        <v>376.9952820104817</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45002</v>
       </c>
       <c r="B42">
-        <v>374.2729725803138</v>
+        <v>377.9128242947459</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45003</v>
       </c>
       <c r="B43">
-        <v>374.7037347960926</v>
+        <v>378.4607780568369</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45004</v>
       </c>
       <c r="B44">
-        <v>375.0491977779505</v>
+        <v>378.875836998022</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>375.7168679510133</v>
+        <v>379.5796930958948</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45006</v>
       </c>
       <c r="B46">
-        <v>376.5071367902568</v>
+        <v>380.4177657455571</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45007</v>
       </c>
       <c r="B47">
-        <v>376.7653755399052</v>
+        <v>380.7437398979806</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45008</v>
       </c>
       <c r="B48">
-        <v>376.6145823705086</v>
+        <v>380.6489820253535</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45009</v>
       </c>
       <c r="B49">
-        <v>377.0079809157631</v>
+        <v>381.0735552863317</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45010</v>
       </c>
       <c r="B50">
-        <v>378.0645055025912</v>
+        <v>382.1731672924728</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45011</v>
       </c>
       <c r="B51">
-        <v>378.5852708106553</v>
+        <v>382.7846479416771</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45012</v>
       </c>
       <c r="B52">
-        <v>377.9847265523474</v>
+        <v>382.2907427722405</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45013</v>
       </c>
       <c r="B53">
-        <v>377.4264638246822</v>
+        <v>381.7877428432029</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45014</v>
       </c>
       <c r="B54">
-        <v>377.9969477773967</v>
+        <v>382.3642116226178</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45015</v>
       </c>
       <c r="B55">
-        <v>378.9536845707121</v>
+        <v>383.3600120694667</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45016</v>
       </c>
       <c r="B56">
-        <v>379.0961368586238</v>
+        <v>383.60736549246</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45017</v>
       </c>
       <c r="B57">
-        <v>378.8322448624291</v>
+        <v>383.4264312751838</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45018</v>
       </c>
       <c r="B58">
-        <v>379.3017278435063</v>
+        <v>383.8815759139351</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45019</v>
       </c>
       <c r="B59">
-        <v>380.1549095654515</v>
+        <v>384.7059356416449</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45020</v>
       </c>
       <c r="B60">
-        <v>379.9129722989499</v>
+        <v>384.5648442813094</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45021</v>
       </c>
       <c r="B61">
-        <v>378.2805016493396</v>
+        <v>383.1532656628956</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45022</v>
       </c>
       <c r="B62">
-        <v>376.5650734631904</v>
+        <v>381.6254252187101</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45023</v>
       </c>
       <c r="B63">
-        <v>375.7909810599498</v>
+        <v>380.9399665402246</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45024</v>
       </c>
       <c r="B64">
-        <v>375.6813613227856</v>
+        <v>380.9240050224423</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45025</v>
       </c>
       <c r="B65">
-        <v>375.5951284625256</v>
+        <v>381.0116617545896</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45026</v>
       </c>
       <c r="B66">
-        <v>375.3452607932539</v>
+        <v>380.9184929288579</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45027</v>
       </c>
       <c r="B67">
-        <v>374.9428119588236</v>
+        <v>380.5428787084903</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45028</v>
       </c>
       <c r="B68">
-        <v>374.4784847208746</v>
+        <v>380.0529310872071</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45029</v>
       </c>
       <c r="B69">
-        <v>374.3620726613742</v>
+        <v>380.0416379180919</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45030</v>
       </c>
       <c r="B70">
-        <v>374.8412415381054</v>
+        <v>380.7924206156642</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45031</v>
       </c>
       <c r="B71">
-        <v>375.2899773278947</v>
+        <v>381.5173495569977</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45032</v>
       </c>
       <c r="B72">
-        <v>374.8599583997401</v>
+        <v>381.2116135788085</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45033</v>
       </c>
       <c r="B73">
-        <v>373.8294403125939</v>
+        <v>380.162012305582</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45034</v>
       </c>
       <c r="B74">
-        <v>373.3771592089664</v>
+        <v>379.6624614679343</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45035</v>
       </c>
       <c r="B75">
-        <v>373.995711023971</v>
+        <v>380.2886037388649</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45036</v>
       </c>
       <c r="B76">
-        <v>375.1095635888535</v>
+        <v>381.4710055964929</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45037</v>
       </c>
       <c r="B77">
-        <v>376.3338900123184</v>
+        <v>382.7959297568464</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45038</v>
       </c>
       <c r="B78">
-        <v>378.0076458392889</v>
+        <v>384.5770896835718</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45039</v>
       </c>
       <c r="B79">
-        <v>380.2163557760013</v>
+        <v>386.8834803236243</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45040</v>
       </c>
       <c r="B80">
-        <v>382.417611513733</v>
+        <v>389.1569430207904</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45041</v>
       </c>
       <c r="B81">
-        <v>384.5100354464921</v>
+        <v>391.282432577797</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45042</v>
       </c>
       <c r="B82">
-        <v>387.1202595433889</v>
+        <v>393.8936854975145</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45043</v>
       </c>
       <c r="B83">
-        <v>390.0023817228456</v>
+        <v>396.7842631934551</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45044</v>
       </c>
       <c r="B84">
-        <v>391.1813609576556</v>
+        <v>398.0181964267286</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45045</v>
       </c>
       <c r="B85">
-        <v>389.0290380633341</v>
+        <v>395.9548923552362</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45046</v>
       </c>
       <c r="B86">
-        <v>384.8253874067349</v>
+        <v>391.8197719783452</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45047</v>
       </c>
       <c r="B87">
-        <v>381.9350689769802</v>
+        <v>388.9514782213139</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45048</v>
       </c>
       <c r="B88">
-        <v>382.2496163294043</v>
+        <v>389.273411871232</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45049</v>
       </c>
       <c r="B89">
-        <v>384.4129611518343</v>
+        <v>391.4653338379621</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45050</v>
       </c>
       <c r="B90">
-        <v>385.8747249551079</v>
+        <v>392.9721984017352</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45051</v>
       </c>
       <c r="B91">
-        <v>385.7568567623291</v>
+        <v>392.8998898525726</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45052</v>
       </c>
       <c r="B92">
-        <v>385.0309632892171</v>
+        <v>392.2237896771788</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44962</v>
       </c>
       <c r="B2">
-        <v>379.1984170596295</v>
+        <v>379.1496805889408</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44963</v>
       </c>
       <c r="B3">
-        <v>378.7675735902959</v>
+        <v>378.7538876627232</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44964</v>
       </c>
       <c r="B4">
-        <v>379.2241471620136</v>
+        <v>379.2127084783893</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>381.1110516029102</v>
+        <v>381.0775588216253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44966</v>
       </c>
       <c r="B6">
-        <v>383.2550708977819</v>
+        <v>383.2596361335834</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>384.2413218602394</v>
+        <v>384.3639505528544</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44968</v>
       </c>
       <c r="B8">
-        <v>384.1460608846015</v>
+        <v>384.3676719315806</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44969</v>
       </c>
       <c r="B9">
-        <v>383.8648017205675</v>
+        <v>384.1073064878044</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44970</v>
       </c>
       <c r="B10">
-        <v>383.8014294531483</v>
+        <v>384.0801542860974</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44971</v>
       </c>
       <c r="B11">
-        <v>384.1530985476455</v>
+        <v>384.5802464607259</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44972</v>
       </c>
       <c r="B12">
-        <v>385.2867866888971</v>
+        <v>385.9030117983265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44973</v>
       </c>
       <c r="B13">
-        <v>386.7067852880015</v>
+        <v>387.4156378930736</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44974</v>
       </c>
       <c r="B14">
-        <v>386.8373060876347</v>
+        <v>387.5455329900022</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44975</v>
       </c>
       <c r="B15">
-        <v>385.1469924515951</v>
+        <v>385.869148530034</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44976</v>
       </c>
       <c r="B16">
-        <v>383.3982673012978</v>
+        <v>384.1708845956347</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44977</v>
       </c>
       <c r="B17">
-        <v>383.3505845715166</v>
+        <v>384.1441125483622</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44978</v>
       </c>
       <c r="B18">
-        <v>384.263456559516</v>
+        <v>385.0565112515542</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44979</v>
       </c>
       <c r="B19">
-        <v>384.2809823742933</v>
+        <v>385.1399804015343</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44980</v>
       </c>
       <c r="B20">
-        <v>383.3060154342916</v>
+        <v>384.3031379899523</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44981</v>
       </c>
       <c r="B21">
-        <v>382.6220154470092</v>
+        <v>383.7351312465473</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44982</v>
       </c>
       <c r="B22">
-        <v>382.430999701532</v>
+        <v>383.6087018023915</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44983</v>
       </c>
       <c r="B23">
-        <v>381.8696951237229</v>
+        <v>383.1373882568866</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="B24">
-        <v>381.0599425136407</v>
+        <v>382.4657807213207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44985</v>
       </c>
       <c r="B25">
-        <v>380.9888073906832</v>
+        <v>382.4858146550913</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44986</v>
       </c>
       <c r="B26">
-        <v>381.4079668965223</v>
+        <v>382.8888690125252</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44987</v>
       </c>
       <c r="B27">
-        <v>380.9025341842203</v>
+        <v>382.330899140231</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44988</v>
       </c>
       <c r="B28">
-        <v>379.2237671237407</v>
+        <v>380.6452378377835</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44989</v>
       </c>
       <c r="B29">
-        <v>377.6474337233046</v>
+        <v>379.0930022426719</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44990</v>
       </c>
       <c r="B30">
-        <v>376.7622946949889</v>
+        <v>378.2304992442197</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44991</v>
       </c>
       <c r="B31">
-        <v>375.8312519689994</v>
+        <v>377.3530697026654</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44992</v>
       </c>
       <c r="B32">
-        <v>374.7727777327443</v>
+        <v>376.3995217069769</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44993</v>
       </c>
       <c r="B33">
-        <v>374.770755901454</v>
+        <v>376.489709290006</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44994</v>
       </c>
       <c r="B34">
-        <v>376.0765165187738</v>
+        <v>377.8162887249879</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44995</v>
       </c>
       <c r="B35">
-        <v>376.9791414040904</v>
+        <v>378.7086411721732</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44996</v>
       </c>
       <c r="B36">
-        <v>376.1013613983126</v>
+        <v>377.8587320591949</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B37">
-        <v>374.3821805224508</v>
+        <v>376.2071121306477</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44998</v>
       </c>
       <c r="B38">
-        <v>373.6699879391976</v>
+        <v>375.5797543148698</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44999</v>
       </c>
       <c r="B39">
-        <v>374.4140754380707</v>
+        <v>376.4474618808314</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45000</v>
       </c>
       <c r="B40">
-        <v>375.7597733720798</v>
+        <v>377.9637481788828</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45001</v>
       </c>
       <c r="B41">
-        <v>376.9952820104817</v>
+        <v>379.3515920888038</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45002</v>
       </c>
       <c r="B42">
-        <v>377.9128242947459</v>
+        <v>380.3504919754768</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45003</v>
       </c>
       <c r="B43">
-        <v>378.4607780568369</v>
+        <v>380.9630196387819</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45004</v>
       </c>
       <c r="B44">
-        <v>378.875836998022</v>
+        <v>381.5104944782613</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>379.5796930958948</v>
+        <v>382.405537298721</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45006</v>
       </c>
       <c r="B46">
-        <v>380.4177657455571</v>
+        <v>383.4268682850508</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45007</v>
       </c>
       <c r="B47">
-        <v>380.7437398979806</v>
+        <v>383.9187037225327</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45008</v>
       </c>
       <c r="B48">
-        <v>380.6489820253535</v>
+        <v>384.0098537831299</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45009</v>
       </c>
       <c r="B49">
-        <v>381.0735552863317</v>
+        <v>384.6356365012069</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45010</v>
       </c>
       <c r="B50">
-        <v>382.1731672924728</v>
+        <v>385.9150032644192</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45011</v>
       </c>
       <c r="B51">
-        <v>382.7846479416771</v>
+        <v>386.6897958601484</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45012</v>
       </c>
       <c r="B52">
-        <v>382.2907427722405</v>
+        <v>386.3734265599069</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45013</v>
       </c>
       <c r="B53">
-        <v>381.7877428432029</v>
+        <v>386.0537457203217</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45014</v>
       </c>
       <c r="B54">
-        <v>382.3642116226178</v>
+        <v>386.7954326184152</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45015</v>
       </c>
       <c r="B55">
-        <v>383.3600120694667</v>
+        <v>387.9543494488385</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45016</v>
       </c>
       <c r="B56">
-        <v>383.60736549246</v>
+        <v>388.3758222602465</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45017</v>
       </c>
       <c r="B57">
-        <v>383.4264312751838</v>
+        <v>388.3325969190101</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45018</v>
       </c>
       <c r="B58">
-        <v>383.8815759139351</v>
+        <v>388.8511788213159</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45019</v>
       </c>
       <c r="B59">
-        <v>384.7059356416449</v>
+        <v>389.7245855871795</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45020</v>
       </c>
       <c r="B60">
-        <v>384.5648442813094</v>
+        <v>389.7002421108756</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45021</v>
       </c>
       <c r="B61">
-        <v>383.1532656628956</v>
+        <v>388.4486566957615</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45022</v>
       </c>
       <c r="B62">
-        <v>381.6254252187101</v>
+        <v>387.0370616884769</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45023</v>
       </c>
       <c r="B63">
-        <v>380.9399665402246</v>
+        <v>386.4110990593532</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45024</v>
       </c>
       <c r="B64">
-        <v>380.9240050224423</v>
+        <v>386.4458508829258</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45025</v>
       </c>
       <c r="B65">
-        <v>381.0116617545896</v>
+        <v>386.5738712513308</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45026</v>
       </c>
       <c r="B66">
-        <v>380.9184929288579</v>
+        <v>386.4849130061999</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45027</v>
       </c>
       <c r="B67">
-        <v>380.5428787084903</v>
+        <v>386.1282596511835</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45028</v>
       </c>
       <c r="B68">
-        <v>380.0529310872071</v>
+        <v>385.7309640580517</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45029</v>
       </c>
       <c r="B69">
-        <v>380.0416379180919</v>
+        <v>385.8043521339389</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45030</v>
       </c>
       <c r="B70">
-        <v>380.7924206156642</v>
+        <v>386.4963014310513</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45031</v>
       </c>
       <c r="B71">
-        <v>381.5173495569977</v>
+        <v>387.0720345751584</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45032</v>
       </c>
       <c r="B72">
-        <v>381.2116135788085</v>
+        <v>386.7464350328146</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45033</v>
       </c>
       <c r="B73">
-        <v>380.162012305582</v>
+        <v>385.8860686540906</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45034</v>
       </c>
       <c r="B74">
-        <v>379.6624614679343</v>
+        <v>385.6132351314086</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45035</v>
       </c>
       <c r="B75">
-        <v>380.2886037388649</v>
+        <v>386.3413600613665</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45036</v>
       </c>
       <c r="B76">
-        <v>381.4710055964929</v>
+        <v>387.5505088791027</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45037</v>
       </c>
       <c r="B77">
-        <v>382.7959297568464</v>
+        <v>388.9377818994145</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45038</v>
       </c>
       <c r="B78">
-        <v>384.5770896835718</v>
+        <v>390.8029302962518</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45039</v>
       </c>
       <c r="B79">
-        <v>386.8834803236243</v>
+        <v>393.1710261192672</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45040</v>
       </c>
       <c r="B80">
-        <v>389.1569430207904</v>
+        <v>395.5515330884065</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45041</v>
       </c>
       <c r="B81">
-        <v>391.282432577797</v>
+        <v>397.8997086950176</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45042</v>
       </c>
       <c r="B82">
-        <v>393.8936854975145</v>
+        <v>400.7722419879531</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45043</v>
       </c>
       <c r="B83">
-        <v>396.7842631934551</v>
+        <v>403.8501085775776</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45044</v>
       </c>
       <c r="B84">
-        <v>398.0181964267286</v>
+        <v>405.2310201440436</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45045</v>
       </c>
       <c r="B85">
-        <v>395.9548923552362</v>
+        <v>403.3752488796944</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45046</v>
       </c>
       <c r="B86">
-        <v>391.8197719783452</v>
+        <v>399.489477534414</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45047</v>
       </c>
       <c r="B87">
-        <v>388.9514782213139</v>
+        <v>396.8264777647394</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45048</v>
       </c>
       <c r="B88">
-        <v>389.273411871232</v>
+        <v>397.3359010533337</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45049</v>
       </c>
       <c r="B89">
-        <v>391.4653338379621</v>
+        <v>399.7909193565139</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45050</v>
       </c>
       <c r="B90">
-        <v>392.9721984017352</v>
+        <v>401.6133003612504</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45051</v>
       </c>
       <c r="B91">
-        <v>392.8998898525726</v>
+        <v>401.8098969713012</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45052</v>
       </c>
       <c r="B92">
-        <v>392.2237896771788</v>
+        <v>401.3840998467222</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44962</v>
       </c>
       <c r="B2">
-        <v>379.1496805889408</v>
+        <v>379.1282580124849</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44963</v>
       </c>
       <c r="B3">
-        <v>378.7538876627232</v>
+        <v>378.7916566768357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44964</v>
       </c>
       <c r="B4">
-        <v>379.2127084783893</v>
+        <v>379.3342456613282</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>381.0775588216253</v>
+        <v>381.2465926929655</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44966</v>
       </c>
       <c r="B6">
-        <v>383.2596361335834</v>
+        <v>383.4631834609756</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>384.3639505528544</v>
+        <v>384.6468928857313</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44968</v>
       </c>
       <c r="B8">
-        <v>384.3676719315806</v>
+        <v>384.7539822988109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44969</v>
       </c>
       <c r="B9">
-        <v>384.1073064878044</v>
+        <v>384.5518627854445</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44970</v>
       </c>
       <c r="B10">
-        <v>384.0801542860974</v>
+        <v>384.5555588405314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44971</v>
       </c>
       <c r="B11">
-        <v>384.5802464607259</v>
+        <v>385.1637031752524</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44972</v>
       </c>
       <c r="B12">
-        <v>385.9030117983265</v>
+        <v>386.6989927106398</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44973</v>
       </c>
       <c r="B13">
-        <v>387.4156378930736</v>
+        <v>388.4082177633014</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44974</v>
       </c>
       <c r="B14">
-        <v>387.5455329900022</v>
+        <v>388.607558269572</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44975</v>
       </c>
       <c r="B15">
-        <v>385.869148530034</v>
+        <v>386.9308347942833</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44976</v>
       </c>
       <c r="B16">
-        <v>384.1708845956347</v>
+        <v>385.3075566771539</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44977</v>
       </c>
       <c r="B17">
-        <v>384.1441125483622</v>
+        <v>385.4603351656094</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44978</v>
       </c>
       <c r="B18">
-        <v>385.0565112515542</v>
+        <v>386.5426317050948</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44979</v>
       </c>
       <c r="B19">
-        <v>385.1399804015343</v>
+        <v>386.7051190455468</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44980</v>
       </c>
       <c r="B20">
-        <v>384.3031379899523</v>
+        <v>385.9171714967773</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44981</v>
       </c>
       <c r="B21">
-        <v>383.7351312465473</v>
+        <v>385.4599594476171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44982</v>
       </c>
       <c r="B22">
-        <v>383.6087018023915</v>
+        <v>385.483319163739</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44983</v>
       </c>
       <c r="B23">
-        <v>383.1373882568866</v>
+        <v>385.1055070495425</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44984</v>
       </c>
       <c r="B24">
-        <v>382.4657807213207</v>
+        <v>384.4593844859808</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44985</v>
       </c>
       <c r="B25">
-        <v>382.4858146550913</v>
+        <v>384.5320439452439</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44986</v>
       </c>
       <c r="B26">
-        <v>382.8888690125252</v>
+        <v>385.0742833437979</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44987</v>
       </c>
       <c r="B27">
-        <v>382.330899140231</v>
+        <v>384.6805914584836</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44988</v>
       </c>
       <c r="B28">
-        <v>380.6452378377835</v>
+        <v>383.1003572961668</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44989</v>
       </c>
       <c r="B29">
-        <v>379.0930022426719</v>
+        <v>381.607336310947</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44990</v>
       </c>
       <c r="B30">
-        <v>378.2304992442197</v>
+        <v>380.8244437443997</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44991</v>
       </c>
       <c r="B31">
-        <v>377.3530697026654</v>
+        <v>380.051068526144</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44992</v>
       </c>
       <c r="B32">
-        <v>376.3995217069769</v>
+        <v>379.1745589449275</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44993</v>
       </c>
       <c r="B33">
-        <v>376.489709290006</v>
+        <v>379.3123755787582</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44994</v>
       </c>
       <c r="B34">
-        <v>377.8162887249879</v>
+        <v>380.7143098483211</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44995</v>
       </c>
       <c r="B35">
-        <v>378.7086411721732</v>
+        <v>381.726002301754</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44996</v>
       </c>
       <c r="B36">
-        <v>377.8587320591949</v>
+        <v>380.9860067732104</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B37">
-        <v>376.2071121306477</v>
+        <v>379.4053608122711</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44998</v>
       </c>
       <c r="B38">
-        <v>375.5797543148698</v>
+        <v>378.849940990542</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>44999</v>
       </c>
       <c r="B39">
-        <v>376.4474618808314</v>
+        <v>379.819892088125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45000</v>
       </c>
       <c r="B40">
-        <v>377.9637481788828</v>
+        <v>381.4376364012326</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45001</v>
       </c>
       <c r="B41">
-        <v>379.3515920888038</v>
+        <v>382.9072028007649</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45002</v>
       </c>
       <c r="B42">
-        <v>380.3504919754768</v>
+        <v>384.0077283792252</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45003</v>
       </c>
       <c r="B43">
-        <v>380.9630196387819</v>
+        <v>384.7586620808742</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45004</v>
       </c>
       <c r="B44">
-        <v>381.5104944782613</v>
+        <v>385.4235319115327</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45005</v>
       </c>
       <c r="B45">
-        <v>382.405537298721</v>
+        <v>386.3820017869606</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45006</v>
       </c>
       <c r="B46">
-        <v>383.4268682850508</v>
+        <v>387.4814219451417</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45007</v>
       </c>
       <c r="B47">
-        <v>383.9187037225327</v>
+        <v>388.1263297327164</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45008</v>
       </c>
       <c r="B48">
-        <v>384.0098537831299</v>
+        <v>388.3832701940711</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45009</v>
       </c>
       <c r="B49">
-        <v>384.6356365012069</v>
+        <v>389.1070009357625</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45010</v>
       </c>
       <c r="B50">
-        <v>385.9150032644192</v>
+        <v>390.4694591968896</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45011</v>
       </c>
       <c r="B51">
-        <v>386.6897958601484</v>
+        <v>391.4094597865307</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45012</v>
       </c>
       <c r="B52">
-        <v>386.3734265599069</v>
+        <v>391.2903337838148</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45013</v>
       </c>
       <c r="B53">
-        <v>386.0537457203217</v>
+        <v>391.0691313081185</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45014</v>
       </c>
       <c r="B54">
-        <v>386.7954326184152</v>
+        <v>391.8371375946944</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45015</v>
       </c>
       <c r="B55">
-        <v>387.9543494488385</v>
+        <v>393.1120376631554</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45016</v>
       </c>
       <c r="B56">
-        <v>388.3758222602465</v>
+        <v>393.7477498886111</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45017</v>
       </c>
       <c r="B57">
-        <v>388.3325969190101</v>
+        <v>393.812967122313</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45018</v>
       </c>
       <c r="B58">
-        <v>388.8511788213159</v>
+        <v>394.2384488044367</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45019</v>
       </c>
       <c r="B59">
-        <v>389.7245855871795</v>
+        <v>395.0230111442173</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45020</v>
       </c>
       <c r="B60">
-        <v>389.7002421108756</v>
+        <v>395.1469098454571</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45021</v>
       </c>
       <c r="B61">
-        <v>388.4486566957615</v>
+        <v>394.2146596630465</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45022</v>
       </c>
       <c r="B62">
-        <v>387.0370616884769</v>
+        <v>393.0513470482074</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45023</v>
       </c>
       <c r="B63">
-        <v>386.4110990593532</v>
+        <v>392.5327720044125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45024</v>
       </c>
       <c r="B64">
-        <v>386.4458508829258</v>
+        <v>392.666572146857</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45025</v>
       </c>
       <c r="B65">
-        <v>386.5738712513308</v>
+        <v>392.950064596887</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45026</v>
       </c>
       <c r="B66">
-        <v>386.4849130061999</v>
+        <v>392.9741285587624</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45027</v>
       </c>
       <c r="B67">
-        <v>386.1282596511835</v>
+        <v>392.6215610829569</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45028</v>
       </c>
       <c r="B68">
-        <v>385.7309640580517</v>
+        <v>392.2106842693628</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45029</v>
       </c>
       <c r="B69">
-        <v>385.8043521339389</v>
+        <v>392.3688911957515</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45030</v>
       </c>
       <c r="B70">
-        <v>386.4963014310513</v>
+        <v>393.2345116328981</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45031</v>
       </c>
       <c r="B71">
-        <v>387.0720345751584</v>
+        <v>393.976242043932</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45032</v>
       </c>
       <c r="B72">
-        <v>386.7464350328146</v>
+        <v>393.7401564633417</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45033</v>
       </c>
       <c r="B73">
-        <v>385.8860686540906</v>
+        <v>392.8887016008106</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45034</v>
       </c>
       <c r="B74">
-        <v>385.6132351314086</v>
+        <v>392.5882177505017</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45035</v>
       </c>
       <c r="B75">
-        <v>386.3413600613665</v>
+        <v>393.3202240485155</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45036</v>
       </c>
       <c r="B76">
-        <v>387.5505088791027</v>
+        <v>394.6021677983578</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45037</v>
       </c>
       <c r="B77">
-        <v>388.9377818994145</v>
+        <v>396.0953073726307</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45038</v>
       </c>
       <c r="B78">
-        <v>390.8029302962518</v>
+        <v>398.043693154819</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45039</v>
       </c>
       <c r="B79">
-        <v>393.1710261192672</v>
+        <v>400.4782706917408</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45040</v>
       </c>
       <c r="B80">
-        <v>395.5515330884065</v>
+        <v>402.9459648264769</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45041</v>
       </c>
       <c r="B81">
-        <v>397.8997086950176</v>
+        <v>405.3858945409277</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45042</v>
       </c>
       <c r="B82">
-        <v>400.7722419879531</v>
+        <v>408.3131069136792</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45043</v>
       </c>
       <c r="B83">
-        <v>403.8501085775776</v>
+        <v>411.4363921407017</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45044</v>
       </c>
       <c r="B84">
-        <v>405.2310201440436</v>
+        <v>412.9196583567357</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45045</v>
       </c>
       <c r="B85">
-        <v>403.3752488796944</v>
+        <v>411.2083878458689</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45046</v>
       </c>
       <c r="B86">
-        <v>399.489477534414</v>
+        <v>407.4297488880478</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45047</v>
       </c>
       <c r="B87">
-        <v>396.8264777647394</v>
+        <v>404.8287659779947</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45048</v>
       </c>
       <c r="B88">
-        <v>397.3359010533337</v>
+        <v>405.4274615595356</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45049</v>
       </c>
       <c r="B89">
-        <v>399.7909193565139</v>
+        <v>408.0161629089166</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45050</v>
       </c>
       <c r="B90">
-        <v>401.6133003612504</v>
+        <v>409.9576533749648</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45051</v>
       </c>
       <c r="B91">
-        <v>401.8098969713012</v>
+        <v>410.2542889380597</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45052</v>
       </c>
       <c r="B92">
-        <v>401.3840998467222</v>
+        <v>409.9739054000306</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -393,730 +393,730 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B2">
-        <v>379.1282580124849</v>
+        <v>378.9546057463857</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B3">
-        <v>378.7916566768357</v>
+        <v>379.6518128594207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B4">
-        <v>379.3342456613282</v>
+        <v>381.6396983515672</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B5">
-        <v>381.2465926929655</v>
+        <v>383.903855037338</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B6">
-        <v>383.4631834609756</v>
+        <v>385.214030378412</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B7">
-        <v>384.6468928857313</v>
+        <v>385.5073388562307</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B8">
-        <v>384.7539822988109</v>
+        <v>385.4441985663309</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B9">
-        <v>384.5518627854445</v>
+        <v>385.5323464284369</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B10">
-        <v>384.5555588405314</v>
+        <v>386.2462940137676</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B11">
-        <v>385.1637031752524</v>
+        <v>387.8942609405838</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B12">
-        <v>386.6989927106398</v>
+        <v>389.6652232370557</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B13">
-        <v>388.4082177633014</v>
+        <v>389.9742246861275</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B14">
-        <v>388.607558269572</v>
+        <v>388.6020853818417</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B15">
-        <v>386.9308347942833</v>
+        <v>387.3432893790866</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B16">
-        <v>385.3075566771539</v>
+        <v>387.5959657550139</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B17">
-        <v>385.4603351656094</v>
+        <v>388.5123894064535</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B18">
-        <v>386.5426317050948</v>
+        <v>388.6340348028915</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B19">
-        <v>386.7051190455468</v>
+        <v>388.0976824442475</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B20">
-        <v>385.9171714967773</v>
+        <v>387.8375681778203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B21">
-        <v>385.4599594476171</v>
+        <v>387.7714296680322</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B22">
-        <v>385.483319163739</v>
+        <v>387.4219138815925</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B23">
-        <v>385.1055070495425</v>
+        <v>387.350852618382</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B24">
-        <v>384.4593844859808</v>
+        <v>388.1347851329255</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B25">
-        <v>384.5320439452439</v>
+        <v>388.669494669625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B26">
-        <v>385.0742833437979</v>
+        <v>387.4617691993086</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B27">
-        <v>384.6805914584836</v>
+        <v>385.1065883172433</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B28">
-        <v>383.1003572961668</v>
+        <v>383.481015675277</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B29">
-        <v>381.607336310947</v>
+        <v>382.8365225085807</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B30">
-        <v>380.8244437443997</v>
+        <v>381.8531750559373</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B31">
-        <v>380.051068526144</v>
+        <v>380.4742117382132</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B32">
-        <v>379.1745589449275</v>
+        <v>380.301612304749</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B33">
-        <v>379.3123755787582</v>
+        <v>381.697385740004</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B34">
-        <v>380.7143098483211</v>
+        <v>382.6987061334882</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B35">
-        <v>381.726002301754</v>
+        <v>381.7817378575495</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B36">
-        <v>380.9860067732104</v>
+        <v>379.9893174047639</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B37">
-        <v>379.4053608122711</v>
+        <v>379.2599800338328</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B38">
-        <v>378.849940990542</v>
+        <v>380.0015574564979</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B39">
-        <v>379.819892088125</v>
+        <v>381.3284306821956</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B40">
-        <v>381.4376364012326</v>
+        <v>382.560872268669</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B41">
-        <v>382.9072028007649</v>
+        <v>383.4940803648245</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B42">
-        <v>384.0077283792252</v>
+        <v>384.0545606406156</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B43">
-        <v>384.7586620808742</v>
+        <v>384.5118265881032</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B44">
-        <v>385.4235319115327</v>
+        <v>385.3258149086246</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B45">
-        <v>386.3820017869606</v>
+        <v>386.2910332885528</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B46">
-        <v>387.4814219451417</v>
+        <v>386.6956098328094</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B47">
-        <v>388.1263297327164</v>
+        <v>386.6760209530663</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B48">
-        <v>388.3832701940711</v>
+        <v>387.2529034744207</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B49">
-        <v>389.1070009357625</v>
+        <v>388.5424183237171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B50">
-        <v>390.4694591968896</v>
+        <v>389.2822812732828</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B51">
-        <v>391.4094597865307</v>
+        <v>388.8804810290934</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B52">
-        <v>391.2903337838148</v>
+        <v>388.5486177671626</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B53">
-        <v>391.0691313081185</v>
+        <v>389.3656965655195</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B54">
-        <v>391.8371375946944</v>
+        <v>390.5254817490026</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B55">
-        <v>393.1120376631554</v>
+        <v>390.8260308402683</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B56">
-        <v>393.7477498886111</v>
+        <v>390.7659148599354</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B57">
-        <v>393.812967122313</v>
+        <v>391.5455682925912</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B58">
-        <v>394.2384488044367</v>
+        <v>392.7447458427508</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B59">
-        <v>395.0230111442173</v>
+        <v>392.7414430453757</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B60">
-        <v>395.1469098454571</v>
+        <v>391.1809436801924</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B61">
-        <v>394.2146596630465</v>
+        <v>389.4734674818889</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B62">
-        <v>393.0513470482074</v>
+        <v>388.7968998581813</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B63">
-        <v>392.5327720044125</v>
+        <v>388.8843471627238</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B64">
-        <v>392.666572146857</v>
+        <v>388.9466009803364</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B65">
-        <v>392.950064596887</v>
+        <v>388.7191040189982</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B66">
-        <v>392.9741285587624</v>
+        <v>388.3488516293745</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B67">
-        <v>392.6215610829569</v>
+        <v>388.0662469931837</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B68">
-        <v>392.2106842693628</v>
+        <v>388.1616232877197</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B69">
-        <v>392.3688911957515</v>
+        <v>388.6520379912886</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B70">
-        <v>393.2345116328981</v>
+        <v>388.9511147889374</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B71">
-        <v>393.976242043932</v>
+        <v>388.5163043162271</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B72">
-        <v>393.7401564633417</v>
+        <v>387.7695826845318</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B73">
-        <v>392.8887016008106</v>
+        <v>387.6770875762699</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B74">
-        <v>392.5882177505017</v>
+        <v>388.4862403500873</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B75">
-        <v>393.3202240485155</v>
+        <v>389.647146148997</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B76">
-        <v>394.6021677983578</v>
+        <v>390.9274255866644</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B77">
-        <v>396.0953073726307</v>
+        <v>392.6999671920206</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B78">
-        <v>398.043693154819</v>
+        <v>395.0283513967595</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B79">
-        <v>400.4782706917408</v>
+        <v>397.4325967950332</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B80">
-        <v>402.9459648264769</v>
+        <v>399.849467748306</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B81">
-        <v>405.3858945409277</v>
+        <v>402.7922827421761</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B82">
-        <v>408.3131069136792</v>
+        <v>405.9044151190965</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B83">
-        <v>411.4363921407017</v>
+        <v>407.2807865637582</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B84">
-        <v>412.9196583567357</v>
+        <v>405.4133018846596</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B85">
-        <v>411.2083878458689</v>
+        <v>401.5542440821754</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B86">
-        <v>407.4297488880478</v>
+        <v>398.9847451446087</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B87">
-        <v>404.8287659779947</v>
+        <v>399.6325301631895</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B88">
-        <v>405.4274615595356</v>
+        <v>402.2092844583066</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B89">
-        <v>408.0161629089166</v>
+        <v>404.1094445130455</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B90">
-        <v>409.9576533749648</v>
+        <v>404.3898415981878</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B91">
-        <v>410.2542889380597</v>
+        <v>404.1049871370885</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B92">
-        <v>409.9739054000306</v>
+        <v>404.2681940330359</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/values_newBlue.xlsx
+++ b/data/xlsx/values_newBlue.xlsx
@@ -396,7 +396,7 @@
         <v>44963</v>
       </c>
       <c r="B2">
-        <v>378.9546057463857</v>
+        <v>378.9741650909838</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>44964</v>
       </c>
       <c r="B3">
-        <v>379.6518128594207</v>
+        <v>379.717247758888</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>44965</v>
       </c>
       <c r="B4">
-        <v>381.6396983515672</v>
+        <v>381.6931541803333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>44966</v>
       </c>
       <c r="B5">
-        <v>383.903855037338</v>
+        <v>383.8870413612075</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>44967</v>
       </c>
       <c r="B6">
-        <v>385.214030378412</v>
+        <v>385.126449934776</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>44968</v>
       </c>
       <c r="B7">
-        <v>385.5073388562307</v>
+        <v>385.3651564618469</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>44969</v>
       </c>
       <c r="B8">
-        <v>385.4441985663309</v>
+        <v>385.2300896501235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>44970</v>
       </c>
       <c r="B9">
-        <v>385.5323464284369</v>
+        <v>385.227663476079</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>44971</v>
       </c>
       <c r="B10">
-        <v>386.2462940137676</v>
+        <v>385.9073214425939</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>44972</v>
       </c>
       <c r="B11">
-        <v>387.8942609405838</v>
+        <v>387.6416840909192</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>44973</v>
       </c>
       <c r="B12">
-        <v>389.6652232370557</v>
+        <v>389.5343169824553</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>44974</v>
       </c>
       <c r="B13">
-        <v>389.9742246861275</v>
+        <v>389.7919474040914</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>44975</v>
       </c>
       <c r="B14">
-        <v>388.6020853818417</v>
+        <v>388.124382576099</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>44976</v>
       </c>
       <c r="B15">
-        <v>387.3432893790866</v>
+        <v>386.5676165442349</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>44977</v>
       </c>
       <c r="B16">
-        <v>387.5959657550139</v>
+        <v>386.8213899491185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>44978</v>
       </c>
       <c r="B17">
-        <v>388.5123894064535</v>
+        <v>387.9776673296967</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>44979</v>
       </c>
       <c r="B18">
-        <v>388.6340348028915</v>
+        <v>388.2074948878181</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>44980</v>
       </c>
       <c r="B19">
-        <v>388.0976824442475</v>
+        <v>387.5021411603427</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>44981</v>
       </c>
       <c r="B20">
-        <v>387.8375681778203</v>
+        <v>387.0826549017935</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>44982</v>
       </c>
       <c r="B21">
-        <v>387.7714296680322</v>
+        <v>387.0818150801202</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>44983</v>
       </c>
       <c r="B22">
-        <v>387.4219138815925</v>
+        <v>386.7471974596313</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>44984</v>
       </c>
       <c r="B23">
-        <v>387.350852618382</v>
+        <v>386.3079312898226</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>44985</v>
       </c>
       <c r="B24">
-        <v>388.1347851329255</v>
+        <v>386.6076094936499</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>44986</v>
       </c>
       <c r="B25">
-        <v>388.669494669625</v>
+        <v>387.1675780501975</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>44987</v>
       </c>
       <c r="B26">
-        <v>387.4617691993086</v>
+        <v>386.5946078758814</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>44988</v>
       </c>
       <c r="B27">
-        <v>385.1065883172433</v>
+        <v>384.8800101694972</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>44989</v>
       </c>
       <c r="B28">
-        <v>383.481015675277</v>
+        <v>383.4241504300365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>44990</v>
       </c>
       <c r="B29">
-        <v>382.8365225085807</v>
+        <v>382.7164460967314</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>44991</v>
       </c>
       <c r="B30">
-        <v>381.8531750559373</v>
+        <v>381.9117627294796</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>44992</v>
       </c>
       <c r="B31">
-        <v>380.4742117382132</v>
+        <v>380.9545923705634</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>44993</v>
       </c>
       <c r="B32">
-        <v>380.301612304749</v>
+        <v>381.0818606545209</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>44994</v>
       </c>
       <c r="B33">
-        <v>381.697385740004</v>
+        <v>382.5176454219608</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>44995</v>
       </c>
       <c r="B34">
-        <v>382.6987061334882</v>
+        <v>383.5079343580844</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>44996</v>
       </c>
       <c r="B35">
-        <v>381.7817378575495</v>
+        <v>382.7044910507331</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>44997</v>
       </c>
       <c r="B36">
-        <v>379.9893174047639</v>
+        <v>381.1127320885087</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>44998</v>
       </c>
       <c r="B37">
-        <v>379.2599800338328</v>
+        <v>380.6012849130593</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>44999</v>
       </c>
       <c r="B38">
-        <v>380.0015574564979</v>
+        <v>381.5778277577218</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>45000</v>
       </c>
       <c r="B39">
-        <v>381.3284306821956</v>
+        <v>383.1337850561019</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>45001</v>
       </c>
       <c r="B40">
-        <v>382.560872268669</v>
+        <v>384.5431848848152</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>45002</v>
       </c>
       <c r="B41">
-        <v>383.4940803648245</v>
+        <v>385.6308610383253</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45003</v>
       </c>
       <c r="B42">
-        <v>384.0545606406156</v>
+        <v>386.3778191268944</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>45004</v>
       </c>
       <c r="B43">
-        <v>384.5118265881032</v>
+        <v>387.0132622466446</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>45005</v>
       </c>
       <c r="B44">
-        <v>385.3258149086246</v>
+        <v>387.9451020099856</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>45006</v>
       </c>
       <c r="B45">
-        <v>386.2910332885528</v>
+        <v>389.0482753762345</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>45007</v>
       </c>
       <c r="B46">
-        <v>386.6956098328094</v>
+        <v>389.7051520853205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>45008</v>
       </c>
       <c r="B47">
-        <v>386.6760209530663</v>
+        <v>389.9607700360247</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>45009</v>
       </c>
       <c r="B48">
-        <v>387.2529034744207</v>
+        <v>390.6891352402376</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>45010</v>
       </c>
       <c r="B49">
-        <v>388.5424183237171</v>
+        <v>392.0772483584506</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>45011</v>
       </c>
       <c r="B50">
-        <v>389.2822812732828</v>
+        <v>393.0419926819558</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45012</v>
       </c>
       <c r="B51">
-        <v>388.8804810290934</v>
+        <v>392.9333564246276</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>45013</v>
       </c>
       <c r="B52">
-        <v>388.5486177671626</v>
+        <v>392.7337230727492</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>45014</v>
       </c>
       <c r="B53">
-        <v>389.3656965655195</v>
+        <v>393.5491496706056</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>45015</v>
       </c>
       <c r="B54">
-        <v>390.5254817490026</v>
+        <v>394.8680206556812</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>45016</v>
       </c>
       <c r="B55">
-        <v>390.8260308402683</v>
+        <v>395.5217730101016</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>45017</v>
       </c>
       <c r="B56">
-        <v>390.7659148599354</v>
+        <v>395.6035910045777</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>45018</v>
       </c>
       <c r="B57">
-        <v>391.5455682925912</v>
+        <v>396.0671120032029</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>45019</v>
       </c>
       <c r="B58">
-        <v>392.7447458427508</v>
+        <v>396.8870115424181</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>45020</v>
       </c>
       <c r="B59">
-        <v>392.7414430453757</v>
+        <v>397.0184371477371</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>45021</v>
       </c>
       <c r="B60">
-        <v>391.1809436801924</v>
+        <v>396.0906215562486</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>45022</v>
       </c>
       <c r="B61">
-        <v>389.4734674818889</v>
+        <v>394.9596909952477</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>45023</v>
       </c>
       <c r="B62">
-        <v>388.7968998581813</v>
+        <v>394.480847387233</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45024</v>
       </c>
       <c r="B63">
-        <v>388.8843471627238</v>
+        <v>394.6274201639836</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45025</v>
       </c>
       <c r="B64">
-        <v>388.9466009803364</v>
+        <v>394.9120374516546</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>45026</v>
       </c>
       <c r="B65">
-        <v>388.7191040189982</v>
+        <v>394.9587722682869</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>45027</v>
       </c>
       <c r="B66">
-        <v>388.3488516293745</v>
+        <v>394.6347512452748</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>45028</v>
       </c>
       <c r="B67">
-        <v>388.0662469931837</v>
+        <v>394.2212186012529</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>45029</v>
       </c>
       <c r="B68">
-        <v>388.1616232877197</v>
+        <v>394.3580588565753</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>45030</v>
       </c>
       <c r="B69">
-        <v>388.6520379912886</v>
+        <v>395.2209963535652</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>45031</v>
       </c>
       <c r="B70">
-        <v>388.9511147889374</v>
+        <v>395.9631619851135</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>45032</v>
       </c>
       <c r="B71">
-        <v>388.5163043162271</v>
+        <v>395.6856726103651</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>45033</v>
       </c>
       <c r="B72">
-        <v>387.7695826845318</v>
+        <v>394.7708836996189</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>45034</v>
       </c>
       <c r="B73">
-        <v>387.6770875762699</v>
+        <v>394.4565686227851</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>45035</v>
       </c>
       <c r="B74">
-        <v>388.4862403500873</v>
+        <v>395.2304194349212</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>45036</v>
       </c>
       <c r="B75">
-        <v>389.647146148997</v>
+        <v>396.5313753694546</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>45037</v>
       </c>
       <c r="B76">
-        <v>390.9274255866644</v>
+        <v>397.9791877031793</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>45038</v>
       </c>
       <c r="B77">
-        <v>392.6999671920206</v>
+        <v>399.8747065480674</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>45039</v>
       </c>
       <c r="B78">
-        <v>395.0283513967595</v>
+        <v>402.3068892568192</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>45040</v>
       </c>
       <c r="B79">
-        <v>397.4325967950332</v>
+        <v>404.7976918756734</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>45041</v>
       </c>
       <c r="B80">
-        <v>399.849467748306</v>
+        <v>407.2392202075957</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>45042</v>
       </c>
       <c r="B81">
-        <v>402.7922827421761</v>
+        <v>410.1562355880181</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>45043</v>
       </c>
       <c r="B82">
-        <v>405.9044151190965</v>
+        <v>413.2849670746483</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>45044</v>
       </c>
       <c r="B83">
-        <v>407.2807865637582</v>
+        <v>414.7743871823646</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>45045</v>
       </c>
       <c r="B84">
-        <v>405.4133018846596</v>
+        <v>413.0545793959781</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>45046</v>
       </c>
       <c r="B85">
-        <v>401.5542440821754</v>
+        <v>409.2889361128232</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>45047</v>
       </c>
       <c r="B86">
-        <v>398.9847451446087</v>
+        <v>406.7522940375188</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>45048</v>
       </c>
       <c r="B87">
-        <v>399.6325301631895</v>
+        <v>407.4227851761189</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>45049</v>
       </c>
       <c r="B88">
-        <v>402.2092844583066</v>
+        <v>410.0367345923612</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>45050</v>
       </c>
       <c r="B89">
-        <v>404.1094445130455</v>
+        <v>411.986808016125</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45051</v>
       </c>
       <c r="B90">
-        <v>404.3898415981878</v>
+        <v>412.3411057399098</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>45052</v>
       </c>
       <c r="B91">
-        <v>404.1049871370885</v>
+        <v>412.1582738325435</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>45053</v>
       </c>
       <c r="B92">
-        <v>404.2681940330359</v>
+        <v>412.4167837928313</v>
       </c>
     </row>
   </sheetData>
